--- a/data-migration/xlsx_1900-/1914_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1914_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A9FED4-9199-4BD7-9324-460CCA70AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF7E92-55CB-4CC1-A362-948EE19D1AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4391,19 +4391,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F150" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" topLeftCell="F423" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185:H188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1914</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1914</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1914</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1914</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1914</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1914</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1914</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1914</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1914</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1914</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1914</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1914</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1914</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1914</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1914</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1914</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1914</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1914</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1914</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1914</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1914</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1914</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1914</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1914</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1914</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1914</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1914</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1914</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1914</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1914</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1914</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1914</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1914</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1914</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1914</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1914</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1914</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1914</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1914</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1914</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1914</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1914</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1914</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1914</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1914</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1914</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1914</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1914</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1914</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1914</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1914</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1914</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1914</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1914</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1914</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1914</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1914</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1914</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1914</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1914</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1914</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1914</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1914</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1914</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1914</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1914</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1914</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1914</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1914</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1914</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1914</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1914</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1914</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1914</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1914</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1914</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1914</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1914</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1914</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1914</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1914</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1914</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1914</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1914</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1914</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1914</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1914</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1914</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1914</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1914</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1914</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1914</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1914</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1914</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1914</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1914</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1914</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1914</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1914</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1914</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1914</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1914</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1914</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1914</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1914</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1914</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1914</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1914</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1914</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1914</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1914</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1914</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1914</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1914</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1914</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1914</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1914</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1914</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1914</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1914</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1914</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1914</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1914</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1914</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1914</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1914</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1914</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1914</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1914</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1914</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1914</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1914</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1914</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1914</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1914</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1914</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1914</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1914</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1914</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1914</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1914</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1914</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1914</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1914</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1914</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1914</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1914</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1914</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1914</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1914</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1914</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1914</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1914</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1914</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1914</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1914</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1914</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1914</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1914</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1914</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1914</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1914</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1914</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1914</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1914</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1914</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1914</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1914</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1914</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1914</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1914</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1914</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1914</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1914</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1914</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1914</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1914</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1914</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1914</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1914</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1914</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1914</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1914</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1914</v>
       </c>
@@ -9314,11 +9314,11 @@
       <c r="G185" t="s">
         <v>1020</v>
       </c>
-      <c r="I185" t="s">
+      <c r="H185" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1914</v>
       </c>
@@ -9337,11 +9337,11 @@
       <c r="G186" t="s">
         <v>1021</v>
       </c>
-      <c r="I186" t="s">
+      <c r="H186" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1914</v>
       </c>
@@ -9360,11 +9360,11 @@
       <c r="G187" t="s">
         <v>1022</v>
       </c>
-      <c r="I187" t="s">
+      <c r="H187" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1914</v>
       </c>
@@ -9383,11 +9383,11 @@
       <c r="G188" t="s">
         <v>1023</v>
       </c>
-      <c r="I188" t="s">
+      <c r="H188" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1914</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1914</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1914</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1914</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1914</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1914</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1914</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1914</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1914</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1914</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1914</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1914</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1914</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1914</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1914</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1914</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1914</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1914</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1914</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1914</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1914</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1914</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1914</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1914</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1914</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1914</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1914</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1914</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1914</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1914</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1914</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1914</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1914</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1914</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1914</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1914</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1914</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1914</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1914</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1914</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1914</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1914</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1914</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1914</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1914</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1914</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1914</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1914</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1914</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1914</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1914</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1914</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1914</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1914</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1914</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1914</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1914</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1914</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1914</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1914</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1914</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1914</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1914</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1914</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1914</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1914</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1914</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1914</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1914</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1914</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1914</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1914</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1914</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1914</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1914</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1914</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1914</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1914</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1914</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1914</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1914</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1914</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1914</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1914</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1914</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1914</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1914</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1914</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1914</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1914</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1914</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1914</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1914</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1914</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1914</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1914</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1914</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1914</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1914</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1914</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1914</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1914</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1914</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1914</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1914</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1914</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1914</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1914</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1914</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1914</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1914</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1914</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1914</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1914</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1914</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1914</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1914</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1914</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1914</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1914</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1914</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1914</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1914</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1914</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1914</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1914</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1914</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1914</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1914</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1914</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1914</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1914</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1914</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1914</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1914</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1914</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1914</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1914</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1914</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1914</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1914</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1914</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1914</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1914</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1914</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1914</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1914</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1914</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1914</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1914</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1914</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1914</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1914</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1914</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1914</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1914</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1914</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1914</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1914</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1914</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1914</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1914</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1914</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1914</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1914</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1914</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1914</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1914</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1914</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1914</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1914</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1914</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1914</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1914</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1914</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1914</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1914</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1914</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1914</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1914</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1914</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1914</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1914</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1914</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1914</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1914</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1914</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1914</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1914</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1914</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1914</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1914</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1914</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1914</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1914</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1914</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1914</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1914</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1914</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1914</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1914</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1914</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1914</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1914</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1914</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1914</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1914</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1914</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1914</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1914</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1914</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1914</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1914</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1914</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1914</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1914</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1914</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1914</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1914</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1914</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1914</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1914</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1914</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1914</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1914</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1914</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1914</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1914</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1914</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1914</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1914</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1914</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1914</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1914</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1914</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1914</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1914</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1914</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1914</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1914</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1914</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1914</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1914</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1914</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1914</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1914</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1914</v>
       </c>

--- a/data-migration/xlsx_1900-/1914_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1914_Winter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF7E92-55CB-4CC1-A362-948EE19D1AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89193C4C-7162-4AED-8CF7-A7DA127EB123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="1337">
   <si>
     <t>Winter</t>
   </si>
@@ -4041,6 +4041,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4391,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F423" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185:H188"/>
+    <sheetView tabSelected="1" topLeftCell="F179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9214,7 +9217,7 @@
         <v>1220</v>
       </c>
       <c r="I181" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -9240,7 +9243,7 @@
         <v>1220</v>
       </c>
       <c r="I182" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -9266,7 +9269,7 @@
         <v>1220</v>
       </c>
       <c r="I183" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -9292,7 +9295,7 @@
         <v>1220</v>
       </c>
       <c r="I184" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -9410,7 +9413,7 @@
         <v>1327</v>
       </c>
       <c r="I189" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -9436,7 +9439,7 @@
         <v>1327</v>
       </c>
       <c r="I190" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -9462,7 +9465,7 @@
         <v>1327</v>
       </c>
       <c r="I191" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -9485,7 +9488,7 @@
         <v>1327</v>
       </c>
       <c r="I192" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1914_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1914_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89193C4C-7162-4AED-8CF7-A7DA127EB123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36627600-8F8B-4526-84C9-7B1ACDF53DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3887,9 +3887,6 @@
     <t>vonschulthessrechberg_g</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>bachmann_g</t>
   </si>
   <si>
@@ -3935,9 +3932,6 @@
     <t>maier_hw</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>wild_o</t>
   </si>
   <si>
@@ -4044,6 +4038,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4394,19 +4394,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+    <sheetView tabSelected="1" topLeftCell="B267" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H279" sqref="H279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1914</v>
       </c>
@@ -4429,13 +4429,13 @@
         <v>1174</v>
       </c>
       <c r="I1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J1" t="s">
         <v>1319</v>
       </c>
-      <c r="J1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1914</v>
       </c>
@@ -4458,10 +4458,10 @@
         <v>1170</v>
       </c>
       <c r="I2" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1914</v>
       </c>
@@ -4481,13 +4481,13 @@
         <v>875</v>
       </c>
       <c r="H3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I3" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1914</v>
       </c>
@@ -4510,10 +4510,10 @@
         <v>1170</v>
       </c>
       <c r="I4" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1914</v>
       </c>
@@ -4533,13 +4533,13 @@
         <v>877</v>
       </c>
       <c r="H5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I5" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1914</v>
       </c>
@@ -4559,13 +4559,13 @@
         <v>878</v>
       </c>
       <c r="H6" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I6" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1914</v>
       </c>
@@ -4588,10 +4588,10 @@
         <v>1170</v>
       </c>
       <c r="I7" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1914</v>
       </c>
@@ -4614,10 +4614,10 @@
         <v>1172</v>
       </c>
       <c r="I8" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1914</v>
       </c>
@@ -4640,10 +4640,10 @@
         <v>1282</v>
       </c>
       <c r="I9" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1914</v>
       </c>
@@ -4666,10 +4666,10 @@
         <v>1172</v>
       </c>
       <c r="I10" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1914</v>
       </c>
@@ -4692,10 +4692,10 @@
         <v>1173</v>
       </c>
       <c r="I11" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1914</v>
       </c>
@@ -4718,10 +4718,10 @@
         <v>1172</v>
       </c>
       <c r="I12" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1914</v>
       </c>
@@ -4744,10 +4744,10 @@
         <v>1172</v>
       </c>
       <c r="I13" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1914</v>
       </c>
@@ -4770,10 +4770,10 @@
         <v>1171</v>
       </c>
       <c r="I14" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -4796,10 +4796,10 @@
         <v>1171</v>
       </c>
       <c r="I15" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1914</v>
       </c>
@@ -4822,10 +4822,10 @@
         <v>1171</v>
       </c>
       <c r="I16" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1914</v>
       </c>
@@ -4848,10 +4848,10 @@
         <v>1283</v>
       </c>
       <c r="I17" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1914</v>
       </c>
@@ -4874,10 +4874,10 @@
         <v>1283</v>
       </c>
       <c r="I18" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1914</v>
       </c>
@@ -4900,13 +4900,13 @@
         <v>1174</v>
       </c>
       <c r="I19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J19" t="s">
         <v>1319</v>
       </c>
-      <c r="J19" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1914</v>
       </c>
@@ -4929,10 +4929,10 @@
         <v>1282</v>
       </c>
       <c r="I20" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1914</v>
       </c>
@@ -4955,10 +4955,10 @@
         <v>1173</v>
       </c>
       <c r="I21" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1914</v>
       </c>
@@ -4981,10 +4981,10 @@
         <v>1170</v>
       </c>
       <c r="I22" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1914</v>
       </c>
@@ -5007,10 +5007,10 @@
         <v>1282</v>
       </c>
       <c r="I23" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1914</v>
       </c>
@@ -5033,10 +5033,10 @@
         <v>1172</v>
       </c>
       <c r="I24" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1914</v>
       </c>
@@ -5059,10 +5059,10 @@
         <v>1171</v>
       </c>
       <c r="I25" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1914</v>
       </c>
@@ -5085,13 +5085,13 @@
         <v>1174</v>
       </c>
       <c r="I26" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J26" t="s">
         <v>1319</v>
       </c>
-      <c r="J26" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1914</v>
       </c>
@@ -5114,10 +5114,10 @@
         <v>1282</v>
       </c>
       <c r="I27" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1914</v>
       </c>
@@ -5140,13 +5140,13 @@
         <v>1174</v>
       </c>
       <c r="I28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J28" t="s">
         <v>1319</v>
       </c>
-      <c r="J28" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1914</v>
       </c>
@@ -5163,16 +5163,16 @@
         <v>472</v>
       </c>
       <c r="G29" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="H29" t="s">
         <v>1175</v>
       </c>
       <c r="I29" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1914</v>
       </c>
@@ -5195,10 +5195,10 @@
         <v>1176</v>
       </c>
       <c r="I30" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1914</v>
       </c>
@@ -5221,10 +5221,10 @@
         <v>1177</v>
       </c>
       <c r="I31" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1914</v>
       </c>
@@ -5247,10 +5247,10 @@
         <v>1177</v>
       </c>
       <c r="I32" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1914</v>
       </c>
@@ -5273,10 +5273,10 @@
         <v>1177</v>
       </c>
       <c r="I33" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1914</v>
       </c>
@@ -5299,10 +5299,10 @@
         <v>1178</v>
       </c>
       <c r="I34" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1914</v>
       </c>
@@ -5325,10 +5325,10 @@
         <v>1179</v>
       </c>
       <c r="I35" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1914</v>
       </c>
@@ -5351,10 +5351,10 @@
         <v>1180</v>
       </c>
       <c r="I36" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1914</v>
       </c>
@@ -5377,10 +5377,10 @@
         <v>1180</v>
       </c>
       <c r="I37" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1914</v>
       </c>
@@ -5403,10 +5403,10 @@
         <v>1181</v>
       </c>
       <c r="I38" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1914</v>
       </c>
@@ -5429,10 +5429,10 @@
         <v>1182</v>
       </c>
       <c r="I39" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1914</v>
       </c>
@@ -5455,10 +5455,10 @@
         <v>1182</v>
       </c>
       <c r="I40" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1914</v>
       </c>
@@ -5481,10 +5481,10 @@
         <v>1179</v>
       </c>
       <c r="I41" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1914</v>
       </c>
@@ -5507,10 +5507,10 @@
         <v>1179</v>
       </c>
       <c r="I42" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1914</v>
       </c>
@@ -5533,10 +5533,10 @@
         <v>1183</v>
       </c>
       <c r="I43" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1914</v>
       </c>
@@ -5559,10 +5559,10 @@
         <v>1175</v>
       </c>
       <c r="I44" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1914</v>
       </c>
@@ -5585,10 +5585,10 @@
         <v>1183</v>
       </c>
       <c r="I45" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1914</v>
       </c>
@@ -5611,10 +5611,10 @@
         <v>1175</v>
       </c>
       <c r="I46" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1914</v>
       </c>
@@ -5637,10 +5637,10 @@
         <v>1183</v>
       </c>
       <c r="I47" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1914</v>
       </c>
@@ -5663,10 +5663,10 @@
         <v>1184</v>
       </c>
       <c r="I48" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1914</v>
       </c>
@@ -5689,10 +5689,10 @@
         <v>1184</v>
       </c>
       <c r="I49" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1914</v>
       </c>
@@ -5715,10 +5715,10 @@
         <v>1185</v>
       </c>
       <c r="I50" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1914</v>
       </c>
@@ -5741,10 +5741,10 @@
         <v>1186</v>
       </c>
       <c r="I51" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1914</v>
       </c>
@@ -5767,10 +5767,10 @@
         <v>1186</v>
       </c>
       <c r="I52" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1914</v>
       </c>
@@ -5790,13 +5790,13 @@
         <v>923</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1284</v>
+        <v>1335</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1914</v>
       </c>
@@ -5819,10 +5819,10 @@
         <v>1187</v>
       </c>
       <c r="I54" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1914</v>
       </c>
@@ -5842,13 +5842,13 @@
         <v>925</v>
       </c>
       <c r="H55" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I55" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1914</v>
       </c>
@@ -5868,13 +5868,13 @@
         <v>899</v>
       </c>
       <c r="H56" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I56" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1914</v>
       </c>
@@ -5894,13 +5894,13 @@
         <v>926</v>
       </c>
       <c r="H57" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I57" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1914</v>
       </c>
@@ -5923,10 +5923,10 @@
         <v>1189</v>
       </c>
       <c r="I58" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1914</v>
       </c>
@@ -5949,10 +5949,10 @@
         <v>1190</v>
       </c>
       <c r="I59" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1914</v>
       </c>
@@ -5972,13 +5972,13 @@
         <v>880</v>
       </c>
       <c r="H60" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I60" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1914</v>
       </c>
@@ -5998,13 +5998,13 @@
         <v>928</v>
       </c>
       <c r="H61" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I61" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1914</v>
       </c>
@@ -6027,10 +6027,10 @@
         <v>1175</v>
       </c>
       <c r="I62" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1914</v>
       </c>
@@ -6053,10 +6053,10 @@
         <v>1177</v>
       </c>
       <c r="I63" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1914</v>
       </c>
@@ -6079,10 +6079,10 @@
         <v>1178</v>
       </c>
       <c r="I64" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1914</v>
       </c>
@@ -6105,10 +6105,10 @@
         <v>1180</v>
       </c>
       <c r="I65" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1914</v>
       </c>
@@ -6131,10 +6131,10 @@
         <v>1179</v>
       </c>
       <c r="I66" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1914</v>
       </c>
@@ -6157,10 +6157,10 @@
         <v>1183</v>
       </c>
       <c r="I67" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1914</v>
       </c>
@@ -6183,10 +6183,10 @@
         <v>1176</v>
       </c>
       <c r="I68" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1914</v>
       </c>
@@ -6209,10 +6209,10 @@
         <v>1184</v>
       </c>
       <c r="I69" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1914</v>
       </c>
@@ -6235,10 +6235,10 @@
         <v>1185</v>
       </c>
       <c r="I70" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1914</v>
       </c>
@@ -6261,10 +6261,10 @@
         <v>1186</v>
       </c>
       <c r="I71" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1914</v>
       </c>
@@ -6287,10 +6287,10 @@
         <v>1186</v>
       </c>
       <c r="I72" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1914</v>
       </c>
@@ -6313,10 +6313,10 @@
         <v>1187</v>
       </c>
       <c r="I73" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1914</v>
       </c>
@@ -6336,13 +6336,13 @@
         <v>875</v>
       </c>
       <c r="H74" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I74" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1914</v>
       </c>
@@ -6362,13 +6362,13 @@
         <v>935</v>
       </c>
       <c r="H75" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I75" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1914</v>
       </c>
@@ -6391,10 +6391,10 @@
         <v>1191</v>
       </c>
       <c r="I76" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1914</v>
       </c>
@@ -6417,10 +6417,10 @@
         <v>1191</v>
       </c>
       <c r="I77" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1914</v>
       </c>
@@ -6443,10 +6443,10 @@
         <v>1192</v>
       </c>
       <c r="I78" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1914</v>
       </c>
@@ -6466,13 +6466,13 @@
         <v>939</v>
       </c>
       <c r="H79" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I79" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1914</v>
       </c>
@@ -6495,10 +6495,10 @@
         <v>1193</v>
       </c>
       <c r="I80" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1914</v>
       </c>
@@ -6521,16 +6521,16 @@
         <v>1194</v>
       </c>
       <c r="I81" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K81" t="s">
         <v>1195</v>
       </c>
       <c r="L81" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1914</v>
       </c>
@@ -6556,16 +6556,16 @@
         <v>1194</v>
       </c>
       <c r="I82" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K82" t="s">
         <v>1195</v>
       </c>
       <c r="L82" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1914</v>
       </c>
@@ -6591,16 +6591,16 @@
         <v>1194</v>
       </c>
       <c r="I83" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K83" t="s">
         <v>1195</v>
       </c>
       <c r="L83" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1914</v>
       </c>
@@ -6623,16 +6623,16 @@
         <v>1194</v>
       </c>
       <c r="I84" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K84" t="s">
         <v>1195</v>
       </c>
       <c r="L84" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1914</v>
       </c>
@@ -6658,16 +6658,16 @@
         <v>1194</v>
       </c>
       <c r="I85" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K85" t="s">
         <v>1195</v>
       </c>
       <c r="L85" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1914</v>
       </c>
@@ -6693,10 +6693,10 @@
         <v>1195</v>
       </c>
       <c r="I86" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1914</v>
       </c>
@@ -6719,10 +6719,10 @@
         <v>1195</v>
       </c>
       <c r="I87" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1914</v>
       </c>
@@ -6745,10 +6745,10 @@
         <v>1196</v>
       </c>
       <c r="I88" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1914</v>
       </c>
@@ -6768,13 +6768,13 @@
         <v>948</v>
       </c>
       <c r="H89" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I89" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1914</v>
       </c>
@@ -6794,13 +6794,13 @@
         <v>949</v>
       </c>
       <c r="H90" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I90" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1914</v>
       </c>
@@ -6823,10 +6823,10 @@
         <v>1197</v>
       </c>
       <c r="I91" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1914</v>
       </c>
@@ -6849,10 +6849,10 @@
         <v>1197</v>
       </c>
       <c r="I92" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1914</v>
       </c>
@@ -6875,10 +6875,10 @@
         <v>1198</v>
       </c>
       <c r="I93" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1914</v>
       </c>
@@ -6901,10 +6901,10 @@
         <v>1198</v>
       </c>
       <c r="I94" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1914</v>
       </c>
@@ -6927,10 +6927,10 @@
         <v>1198</v>
       </c>
       <c r="I95" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1914</v>
       </c>
@@ -6953,16 +6953,16 @@
         <v>1198</v>
       </c>
       <c r="I96" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K96" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L96" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1914</v>
       </c>
@@ -6985,16 +6985,16 @@
         <v>1198</v>
       </c>
       <c r="I97" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K97" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L97" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1914</v>
       </c>
@@ -7017,10 +7017,10 @@
         <v>1198</v>
       </c>
       <c r="I98" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1914</v>
       </c>
@@ -7040,13 +7040,13 @@
         <v>954</v>
       </c>
       <c r="H99" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I99" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1914</v>
       </c>
@@ -7066,19 +7066,19 @@
         <v>955</v>
       </c>
       <c r="H100" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I100" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="K100" t="s">
         <v>1198</v>
       </c>
       <c r="L100" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1914</v>
       </c>
@@ -7098,19 +7098,19 @@
         <v>956</v>
       </c>
       <c r="H101" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I101" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="K101" t="s">
         <v>1198</v>
       </c>
       <c r="L101" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1914</v>
       </c>
@@ -7133,10 +7133,10 @@
         <v>1199</v>
       </c>
       <c r="I102" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1914</v>
       </c>
@@ -7156,13 +7156,13 @@
         <v>957</v>
       </c>
       <c r="H103" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I103" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1914</v>
       </c>
@@ -7182,13 +7182,13 @@
         <v>958</v>
       </c>
       <c r="H104" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I104" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1914</v>
       </c>
@@ -7208,13 +7208,13 @@
         <v>959</v>
       </c>
       <c r="H105" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I105" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1914</v>
       </c>
@@ -7234,13 +7234,13 @@
         <v>935</v>
       </c>
       <c r="H106" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I106" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1914</v>
       </c>
@@ -7263,10 +7263,10 @@
         <v>1200</v>
       </c>
       <c r="I107" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1914</v>
       </c>
@@ -7289,10 +7289,10 @@
         <v>1200</v>
       </c>
       <c r="I108" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1914</v>
       </c>
@@ -7315,13 +7315,13 @@
         <v>1201</v>
       </c>
       <c r="I109" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J109" t="s">
         <v>1319</v>
       </c>
-      <c r="J109" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1914</v>
       </c>
@@ -7344,13 +7344,13 @@
         <v>1201</v>
       </c>
       <c r="I110" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J110" t="s">
         <v>1319</v>
       </c>
-      <c r="J110" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1914</v>
       </c>
@@ -7373,13 +7373,13 @@
         <v>1201</v>
       </c>
       <c r="I111" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J111" t="s">
         <v>1319</v>
       </c>
-      <c r="J111" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1914</v>
       </c>
@@ -7402,13 +7402,13 @@
         <v>1201</v>
       </c>
       <c r="I112" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J112" t="s">
         <v>1319</v>
       </c>
-      <c r="J112" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1914</v>
       </c>
@@ -7431,13 +7431,13 @@
         <v>1201</v>
       </c>
       <c r="I113" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J113" t="s">
         <v>1319</v>
       </c>
-      <c r="J113" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1914</v>
       </c>
@@ -7460,13 +7460,13 @@
         <v>1201</v>
       </c>
       <c r="I114" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J114" t="s">
         <v>1319</v>
       </c>
-      <c r="J114" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1914</v>
       </c>
@@ -7486,16 +7486,16 @@
         <v>967</v>
       </c>
       <c r="H115" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I115" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="J115" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1914</v>
       </c>
@@ -7515,16 +7515,16 @@
         <v>968</v>
       </c>
       <c r="H116" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I116" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="J116" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1914</v>
       </c>
@@ -7550,10 +7550,10 @@
         <v>1202</v>
       </c>
       <c r="I117" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1914</v>
       </c>
@@ -7579,10 +7579,10 @@
         <v>1202</v>
       </c>
       <c r="I118" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1914</v>
       </c>
@@ -7605,10 +7605,10 @@
         <v>1202</v>
       </c>
       <c r="I119" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1914</v>
       </c>
@@ -7631,10 +7631,10 @@
         <v>1202</v>
       </c>
       <c r="I120" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1914</v>
       </c>
@@ -7654,13 +7654,13 @@
         <v>888</v>
       </c>
       <c r="H121" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I121" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1914</v>
       </c>
@@ -7683,10 +7683,10 @@
         <v>1199</v>
       </c>
       <c r="I122" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1914</v>
       </c>
@@ -7706,13 +7706,13 @@
         <v>973</v>
       </c>
       <c r="H123" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I123" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1914</v>
       </c>
@@ -7732,13 +7732,13 @@
         <v>974</v>
       </c>
       <c r="H124" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I124" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1914</v>
       </c>
@@ -7761,10 +7761,10 @@
         <v>1203</v>
       </c>
       <c r="I125" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1914</v>
       </c>
@@ -7787,10 +7787,10 @@
         <v>1203</v>
       </c>
       <c r="I126" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1914</v>
       </c>
@@ -7813,10 +7813,10 @@
         <v>1203</v>
       </c>
       <c r="I127" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1914</v>
       </c>
@@ -7839,10 +7839,10 @@
         <v>1204</v>
       </c>
       <c r="I128" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1914</v>
       </c>
@@ -7865,10 +7865,10 @@
         <v>1205</v>
       </c>
       <c r="I129" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1914</v>
       </c>
@@ -7891,10 +7891,10 @@
         <v>1205</v>
       </c>
       <c r="I130" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1914</v>
       </c>
@@ -7917,10 +7917,10 @@
         <v>1205</v>
       </c>
       <c r="I131" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1914</v>
       </c>
@@ -7943,10 +7943,10 @@
         <v>1206</v>
       </c>
       <c r="I132" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1914</v>
       </c>
@@ -7969,10 +7969,10 @@
         <v>1206</v>
       </c>
       <c r="I133" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1914</v>
       </c>
@@ -7995,10 +7995,10 @@
         <v>1206</v>
       </c>
       <c r="I134" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1914</v>
       </c>
@@ -8021,10 +8021,10 @@
         <v>1207</v>
       </c>
       <c r="I135" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1914</v>
       </c>
@@ -8047,10 +8047,10 @@
         <v>1207</v>
       </c>
       <c r="I136" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1914</v>
       </c>
@@ -8073,10 +8073,10 @@
         <v>1207</v>
       </c>
       <c r="I137" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1914</v>
       </c>
@@ -8096,13 +8096,13 @@
         <v>985</v>
       </c>
       <c r="H138" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I138" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1914</v>
       </c>
@@ -8122,13 +8122,13 @@
         <v>986</v>
       </c>
       <c r="H139" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I139" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1914</v>
       </c>
@@ -8151,10 +8151,10 @@
         <v>1208</v>
       </c>
       <c r="I140" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1914</v>
       </c>
@@ -8177,10 +8177,10 @@
         <v>1208</v>
       </c>
       <c r="I141" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1914</v>
       </c>
@@ -8203,10 +8203,10 @@
         <v>1209</v>
       </c>
       <c r="I142" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1914</v>
       </c>
@@ -8229,10 +8229,10 @@
         <v>1209</v>
       </c>
       <c r="I143" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1914</v>
       </c>
@@ -8255,10 +8255,10 @@
         <v>1209</v>
       </c>
       <c r="I144" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1914</v>
       </c>
@@ -8278,13 +8278,13 @@
         <v>883</v>
       </c>
       <c r="H145" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I145" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1914</v>
       </c>
@@ -8304,13 +8304,13 @@
         <v>991</v>
       </c>
       <c r="H146" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I146" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1914</v>
       </c>
@@ -8330,13 +8330,13 @@
         <v>992</v>
       </c>
       <c r="H147" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I147" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1914</v>
       </c>
@@ -8356,13 +8356,13 @@
         <v>993</v>
       </c>
       <c r="H148" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I148" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1914</v>
       </c>
@@ -8385,10 +8385,10 @@
         <v>1211</v>
       </c>
       <c r="I149" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1914</v>
       </c>
@@ -8411,10 +8411,10 @@
         <v>1211</v>
       </c>
       <c r="I150" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1914</v>
       </c>
@@ -8437,10 +8437,10 @@
         <v>1212</v>
       </c>
       <c r="I151" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1914</v>
       </c>
@@ -8463,10 +8463,10 @@
         <v>1213</v>
       </c>
       <c r="I152" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1914</v>
       </c>
@@ -8489,10 +8489,10 @@
         <v>1213</v>
       </c>
       <c r="I153" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1914</v>
       </c>
@@ -8515,10 +8515,10 @@
         <v>1214</v>
       </c>
       <c r="I154" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1914</v>
       </c>
@@ -8541,10 +8541,10 @@
         <v>1215</v>
       </c>
       <c r="I155" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1914</v>
       </c>
@@ -8567,10 +8567,10 @@
         <v>1215</v>
       </c>
       <c r="I156" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1914</v>
       </c>
@@ -8590,13 +8590,13 @@
         <v>883</v>
       </c>
       <c r="H157" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I157" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1914</v>
       </c>
@@ -8616,13 +8616,13 @@
         <v>1000</v>
       </c>
       <c r="H158" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I158" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1914</v>
       </c>
@@ -8642,13 +8642,13 @@
         <v>1001</v>
       </c>
       <c r="H159" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I159" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1914</v>
       </c>
@@ -8671,10 +8671,10 @@
         <v>1216</v>
       </c>
       <c r="I160" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1914</v>
       </c>
@@ -8697,10 +8697,10 @@
         <v>1216</v>
       </c>
       <c r="I161" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1914</v>
       </c>
@@ -8720,13 +8720,13 @@
         <v>1004</v>
       </c>
       <c r="H162" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I162" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1914</v>
       </c>
@@ -8746,13 +8746,13 @@
         <v>1005</v>
       </c>
       <c r="H163" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I163" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1914</v>
       </c>
@@ -8772,13 +8772,13 @@
         <v>1006</v>
       </c>
       <c r="H164" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I164" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1914</v>
       </c>
@@ -8801,10 +8801,10 @@
         <v>1217</v>
       </c>
       <c r="I165" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1914</v>
       </c>
@@ -8827,10 +8827,10 @@
         <v>1217</v>
       </c>
       <c r="I166" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1914</v>
       </c>
@@ -8853,10 +8853,10 @@
         <v>1217</v>
       </c>
       <c r="I167" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1914</v>
       </c>
@@ -8876,13 +8876,13 @@
         <v>1009</v>
       </c>
       <c r="H168" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I168" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1914</v>
       </c>
@@ -8902,13 +8902,13 @@
         <v>1010</v>
       </c>
       <c r="H169" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I169" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1914</v>
       </c>
@@ -8928,13 +8928,13 @@
         <v>883</v>
       </c>
       <c r="H170" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I170" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1914</v>
       </c>
@@ -8957,10 +8957,10 @@
         <v>1218</v>
       </c>
       <c r="I171" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1914</v>
       </c>
@@ -8983,10 +8983,10 @@
         <v>1218</v>
       </c>
       <c r="I172" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1914</v>
       </c>
@@ -9009,10 +9009,10 @@
         <v>1218</v>
       </c>
       <c r="I173" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1914</v>
       </c>
@@ -9035,10 +9035,10 @@
         <v>1218</v>
       </c>
       <c r="I174" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1914</v>
       </c>
@@ -9061,10 +9061,10 @@
         <v>1218</v>
       </c>
       <c r="I175" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1914</v>
       </c>
@@ -9087,10 +9087,10 @@
         <v>1219</v>
       </c>
       <c r="I176" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1914</v>
       </c>
@@ -9110,13 +9110,13 @@
         <v>1015</v>
       </c>
       <c r="H177" t="s">
-        <v>1300</v>
+        <v>1336</v>
       </c>
       <c r="I177" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1914</v>
       </c>
@@ -9136,13 +9136,13 @@
         <v>923</v>
       </c>
       <c r="H178" t="s">
-        <v>1300</v>
+        <v>1336</v>
       </c>
       <c r="I178" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1914</v>
       </c>
@@ -9162,13 +9162,13 @@
         <v>1016</v>
       </c>
       <c r="H179" t="s">
-        <v>1300</v>
+        <v>1336</v>
       </c>
       <c r="I179" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1914</v>
       </c>
@@ -9188,13 +9188,13 @@
         <v>888</v>
       </c>
       <c r="H180" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I180" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1914</v>
       </c>
@@ -9217,10 +9217,10 @@
         <v>1220</v>
       </c>
       <c r="I181" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1914</v>
       </c>
@@ -9243,10 +9243,10 @@
         <v>1220</v>
       </c>
       <c r="I182" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1914</v>
       </c>
@@ -9269,10 +9269,10 @@
         <v>1220</v>
       </c>
       <c r="I183" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1914</v>
       </c>
@@ -9295,10 +9295,10 @@
         <v>1220</v>
       </c>
       <c r="I184" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1914</v>
       </c>
@@ -9318,10 +9318,10 @@
         <v>1020</v>
       </c>
       <c r="H185" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1914</v>
       </c>
@@ -9341,10 +9341,10 @@
         <v>1021</v>
       </c>
       <c r="H186" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1914</v>
       </c>
@@ -9364,10 +9364,10 @@
         <v>1022</v>
       </c>
       <c r="H187" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1914</v>
       </c>
@@ -9387,10 +9387,10 @@
         <v>1023</v>
       </c>
       <c r="H188" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1914</v>
       </c>
@@ -9410,13 +9410,13 @@
         <v>1024</v>
       </c>
       <c r="H189" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I189" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1914</v>
       </c>
@@ -9436,13 +9436,13 @@
         <v>1025</v>
       </c>
       <c r="H190" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I190" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1914</v>
       </c>
@@ -9462,13 +9462,13 @@
         <v>1026</v>
       </c>
       <c r="H191" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I191" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1914</v>
       </c>
@@ -9485,13 +9485,13 @@
         <v>633</v>
       </c>
       <c r="H192" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I192" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1914</v>
       </c>
@@ -9514,10 +9514,10 @@
         <v>1221</v>
       </c>
       <c r="I193" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1914</v>
       </c>
@@ -9540,10 +9540,10 @@
         <v>1221</v>
       </c>
       <c r="I194" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1914</v>
       </c>
@@ -9566,10 +9566,10 @@
         <v>1221</v>
       </c>
       <c r="I195" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1914</v>
       </c>
@@ -9592,10 +9592,10 @@
         <v>1221</v>
       </c>
       <c r="I196" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1914</v>
       </c>
@@ -9618,10 +9618,10 @@
         <v>1222</v>
       </c>
       <c r="I197" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1914</v>
       </c>
@@ -9644,10 +9644,10 @@
         <v>1222</v>
       </c>
       <c r="I198" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1914</v>
       </c>
@@ -9670,10 +9670,10 @@
         <v>1222</v>
       </c>
       <c r="I199" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1914</v>
       </c>
@@ -9696,13 +9696,13 @@
         <v>1223</v>
       </c>
       <c r="I200" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J200" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1914</v>
       </c>
@@ -9725,13 +9725,13 @@
         <v>1223</v>
       </c>
       <c r="I201" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J201" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1914</v>
       </c>
@@ -9754,13 +9754,13 @@
         <v>1223</v>
       </c>
       <c r="I202" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J202" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1914</v>
       </c>
@@ -9783,13 +9783,13 @@
         <v>1223</v>
       </c>
       <c r="I203" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J203" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1914</v>
       </c>
@@ -9812,10 +9812,10 @@
         <v>1224</v>
       </c>
       <c r="I204" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1914</v>
       </c>
@@ -9838,10 +9838,10 @@
         <v>1224</v>
       </c>
       <c r="I205" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1914</v>
       </c>
@@ -9864,10 +9864,10 @@
         <v>1224</v>
       </c>
       <c r="I206" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1914</v>
       </c>
@@ -9890,10 +9890,10 @@
         <v>1225</v>
       </c>
       <c r="I207" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1914</v>
       </c>
@@ -9916,10 +9916,10 @@
         <v>1225</v>
       </c>
       <c r="I208" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1914</v>
       </c>
@@ -9942,10 +9942,10 @@
         <v>1225</v>
       </c>
       <c r="I209" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1914</v>
       </c>
@@ -9968,10 +9968,10 @@
         <v>1225</v>
       </c>
       <c r="I210" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1914</v>
       </c>
@@ -9994,10 +9994,10 @@
         <v>1225</v>
       </c>
       <c r="I211" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1914</v>
       </c>
@@ -10020,10 +10020,10 @@
         <v>1225</v>
       </c>
       <c r="I212" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1914</v>
       </c>
@@ -10046,10 +10046,10 @@
         <v>1226</v>
       </c>
       <c r="I213" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1914</v>
       </c>
@@ -10072,10 +10072,10 @@
         <v>1226</v>
       </c>
       <c r="I214" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1914</v>
       </c>
@@ -10098,10 +10098,10 @@
         <v>1226</v>
       </c>
       <c r="I215" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1914</v>
       </c>
@@ -10124,10 +10124,10 @@
         <v>1226</v>
       </c>
       <c r="I216" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1914</v>
       </c>
@@ -10150,10 +10150,10 @@
         <v>1226</v>
       </c>
       <c r="I217" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1914</v>
       </c>
@@ -10176,10 +10176,10 @@
         <v>1227</v>
       </c>
       <c r="I218" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1914</v>
       </c>
@@ -10202,10 +10202,10 @@
         <v>1227</v>
       </c>
       <c r="I219" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1914</v>
       </c>
@@ -10228,10 +10228,10 @@
         <v>1228</v>
       </c>
       <c r="I220" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1914</v>
       </c>
@@ -10254,10 +10254,10 @@
         <v>1228</v>
       </c>
       <c r="I221" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1914</v>
       </c>
@@ -10280,10 +10280,10 @@
         <v>1229</v>
       </c>
       <c r="I222" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1914</v>
       </c>
@@ -10306,10 +10306,10 @@
         <v>1229</v>
       </c>
       <c r="I223" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1914</v>
       </c>
@@ -10332,10 +10332,10 @@
         <v>1230</v>
       </c>
       <c r="I224" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1914</v>
       </c>
@@ -10358,10 +10358,10 @@
         <v>1229</v>
       </c>
       <c r="I225" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1914</v>
       </c>
@@ -10384,10 +10384,10 @@
         <v>1230</v>
       </c>
       <c r="I226" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1914</v>
       </c>
@@ -10410,10 +10410,10 @@
         <v>1228</v>
       </c>
       <c r="I227" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1914</v>
       </c>
@@ -10433,16 +10433,16 @@
         <v>1053</v>
       </c>
       <c r="H228" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I228" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J228" t="s">
         <v>1319</v>
       </c>
-      <c r="J228" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1914</v>
       </c>
@@ -10465,10 +10465,10 @@
         <v>1229</v>
       </c>
       <c r="I229" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1914</v>
       </c>
@@ -10491,10 +10491,10 @@
         <v>1176</v>
       </c>
       <c r="I230" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1914</v>
       </c>
@@ -10517,10 +10517,10 @@
         <v>1176</v>
       </c>
       <c r="I231" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1914</v>
       </c>
@@ -10543,10 +10543,10 @@
         <v>1176</v>
       </c>
       <c r="I232" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1914</v>
       </c>
@@ -10569,10 +10569,10 @@
         <v>1230</v>
       </c>
       <c r="I233" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1914</v>
       </c>
@@ -10592,13 +10592,13 @@
         <v>874</v>
       </c>
       <c r="H234" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I234" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1914</v>
       </c>
@@ -10621,10 +10621,10 @@
         <v>1229</v>
       </c>
       <c r="I235" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1914</v>
       </c>
@@ -10644,16 +10644,16 @@
         <v>1060</v>
       </c>
       <c r="H236" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I236" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J236" t="s">
         <v>1319</v>
       </c>
-      <c r="J236" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1914</v>
       </c>
@@ -10673,13 +10673,13 @@
         <v>1061</v>
       </c>
       <c r="H237" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I237" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1914</v>
       </c>
@@ -10699,16 +10699,16 @@
         <v>1062</v>
       </c>
       <c r="H238" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I238" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J238" t="s">
         <v>1319</v>
       </c>
-      <c r="J238" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1914</v>
       </c>
@@ -10728,16 +10728,16 @@
         <v>1063</v>
       </c>
       <c r="H239" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I239" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J239" t="s">
         <v>1319</v>
       </c>
-      <c r="J239" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1914</v>
       </c>
@@ -10760,10 +10760,10 @@
         <v>1231</v>
       </c>
       <c r="I240" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1914</v>
       </c>
@@ -10786,10 +10786,10 @@
         <v>1229</v>
       </c>
       <c r="I241" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1914</v>
       </c>
@@ -10812,10 +10812,10 @@
         <v>1231</v>
       </c>
       <c r="I242" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1914</v>
       </c>
@@ -10838,10 +10838,10 @@
         <v>1232</v>
       </c>
       <c r="I243" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1914</v>
       </c>
@@ -10864,10 +10864,10 @@
         <v>1232</v>
       </c>
       <c r="I244" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1914</v>
       </c>
@@ -10890,10 +10890,10 @@
         <v>1232</v>
       </c>
       <c r="I245" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1914</v>
       </c>
@@ -10916,10 +10916,10 @@
         <v>1232</v>
       </c>
       <c r="I246" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1914</v>
       </c>
@@ -10942,10 +10942,10 @@
         <v>1232</v>
       </c>
       <c r="I247" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1914</v>
       </c>
@@ -10968,10 +10968,10 @@
         <v>1170</v>
       </c>
       <c r="I248" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1914</v>
       </c>
@@ -10994,10 +10994,10 @@
         <v>1233</v>
       </c>
       <c r="I249" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1914</v>
       </c>
@@ -11017,13 +11017,13 @@
         <v>1070</v>
       </c>
       <c r="H250" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I250" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1914</v>
       </c>
@@ -11046,10 +11046,10 @@
         <v>1234</v>
       </c>
       <c r="I251" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1914</v>
       </c>
@@ -11072,10 +11072,10 @@
         <v>1234</v>
       </c>
       <c r="I252" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1914</v>
       </c>
@@ -11095,13 +11095,13 @@
         <v>902</v>
       </c>
       <c r="H253" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I253" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1914</v>
       </c>
@@ -11124,10 +11124,10 @@
         <v>1233</v>
       </c>
       <c r="I254" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1914</v>
       </c>
@@ -11150,10 +11150,10 @@
         <v>1235</v>
       </c>
       <c r="I255" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1914</v>
       </c>
@@ -11173,13 +11173,13 @@
         <v>883</v>
       </c>
       <c r="H256" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I256" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1914</v>
       </c>
@@ -11202,10 +11202,10 @@
         <v>1233</v>
       </c>
       <c r="I257" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1914</v>
       </c>
@@ -11225,13 +11225,13 @@
         <v>1074</v>
       </c>
       <c r="H258" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I258" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1914</v>
       </c>
@@ -11251,13 +11251,13 @@
         <v>1075</v>
       </c>
       <c r="H259" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I259" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1914</v>
       </c>
@@ -11280,10 +11280,10 @@
         <v>1236</v>
       </c>
       <c r="I260" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1914</v>
       </c>
@@ -11306,10 +11306,10 @@
         <v>1235</v>
       </c>
       <c r="I261" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1914</v>
       </c>
@@ -11332,10 +11332,10 @@
         <v>1233</v>
       </c>
       <c r="I262" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1914</v>
       </c>
@@ -11355,13 +11355,13 @@
         <v>883</v>
       </c>
       <c r="H263" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I263" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1914</v>
       </c>
@@ -11381,13 +11381,13 @@
         <v>888</v>
       </c>
       <c r="H264" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I264" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1914</v>
       </c>
@@ -11410,10 +11410,10 @@
         <v>1236</v>
       </c>
       <c r="I265" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1914</v>
       </c>
@@ -11433,13 +11433,13 @@
         <v>1078</v>
       </c>
       <c r="H266" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I266" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1914</v>
       </c>
@@ -11462,10 +11462,10 @@
         <v>1233</v>
       </c>
       <c r="I267" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1914</v>
       </c>
@@ -11488,10 +11488,10 @@
         <v>1188</v>
       </c>
       <c r="I268" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1914</v>
       </c>
@@ -11514,10 +11514,10 @@
         <v>1188</v>
       </c>
       <c r="I269" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1914</v>
       </c>
@@ -11540,10 +11540,10 @@
         <v>1188</v>
       </c>
       <c r="I270" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1914</v>
       </c>
@@ -11563,13 +11563,13 @@
         <v>1062</v>
       </c>
       <c r="H271" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I271" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1914</v>
       </c>
@@ -11589,13 +11589,13 @@
         <v>1081</v>
       </c>
       <c r="H272" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I272" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1914</v>
       </c>
@@ -11618,10 +11618,10 @@
         <v>1237</v>
       </c>
       <c r="I273" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1914</v>
       </c>
@@ -11644,10 +11644,10 @@
         <v>1237</v>
       </c>
       <c r="I274" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1914</v>
       </c>
@@ -11670,10 +11670,10 @@
         <v>1238</v>
       </c>
       <c r="I275" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1914</v>
       </c>
@@ -11693,13 +11693,13 @@
         <v>1083</v>
       </c>
       <c r="H276" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I276" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1914</v>
       </c>
@@ -11719,13 +11719,13 @@
         <v>1055</v>
       </c>
       <c r="H277" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I277" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1914</v>
       </c>
@@ -11745,13 +11745,13 @@
         <v>1058</v>
       </c>
       <c r="H278" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I278" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1914</v>
       </c>
@@ -11771,13 +11771,13 @@
         <v>972</v>
       </c>
       <c r="H279" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I279" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1914</v>
       </c>
@@ -11800,10 +11800,10 @@
         <v>1239</v>
       </c>
       <c r="I280" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1914</v>
       </c>
@@ -11826,10 +11826,10 @@
         <v>1239</v>
       </c>
       <c r="I281" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1914</v>
       </c>
@@ -11852,10 +11852,10 @@
         <v>1239</v>
       </c>
       <c r="I282" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1914</v>
       </c>
@@ -11875,13 +11875,13 @@
         <v>880</v>
       </c>
       <c r="H283" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I283" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1914</v>
       </c>
@@ -11901,13 +11901,13 @@
         <v>1054</v>
       </c>
       <c r="H284" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I284" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1914</v>
       </c>
@@ -11930,10 +11930,10 @@
         <v>1240</v>
       </c>
       <c r="I285" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1914</v>
       </c>
@@ -11956,10 +11956,10 @@
         <v>1240</v>
       </c>
       <c r="I286" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1914</v>
       </c>
@@ -11979,13 +11979,13 @@
         <v>903</v>
       </c>
       <c r="H287" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I287" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1914</v>
       </c>
@@ -12008,10 +12008,10 @@
         <v>1188</v>
       </c>
       <c r="I288" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1914</v>
       </c>
@@ -12034,10 +12034,10 @@
         <v>1188</v>
       </c>
       <c r="I289" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1914</v>
       </c>
@@ -12057,13 +12057,13 @@
         <v>1087</v>
       </c>
       <c r="H290" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I290" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1914</v>
       </c>
@@ -12083,13 +12083,13 @@
         <v>1088</v>
       </c>
       <c r="H291" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I291" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1914</v>
       </c>
@@ -12109,13 +12109,13 @@
         <v>977</v>
       </c>
       <c r="H292" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I292" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1914</v>
       </c>
@@ -12138,10 +12138,10 @@
         <v>1239</v>
       </c>
       <c r="I293" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1914</v>
       </c>
@@ -12164,10 +12164,10 @@
         <v>1241</v>
       </c>
       <c r="I294" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1914</v>
       </c>
@@ -12190,10 +12190,10 @@
         <v>1241</v>
       </c>
       <c r="I295" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1914</v>
       </c>
@@ -12219,10 +12219,10 @@
         <v>1241</v>
       </c>
       <c r="I296" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1914</v>
       </c>
@@ -12242,13 +12242,13 @@
         <v>1091</v>
       </c>
       <c r="H297" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I297" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1914</v>
       </c>
@@ -12271,10 +12271,10 @@
         <v>1241</v>
       </c>
       <c r="I298" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1914</v>
       </c>
@@ -12297,10 +12297,10 @@
         <v>1241</v>
       </c>
       <c r="I299" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1914</v>
       </c>
@@ -12323,10 +12323,10 @@
         <v>1242</v>
       </c>
       <c r="I300" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1914</v>
       </c>
@@ -12349,10 +12349,10 @@
         <v>1242</v>
       </c>
       <c r="I301" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1914</v>
       </c>
@@ -12375,10 +12375,10 @@
         <v>1243</v>
       </c>
       <c r="I302" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1914</v>
       </c>
@@ -12401,10 +12401,10 @@
         <v>1244</v>
       </c>
       <c r="I303" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1914</v>
       </c>
@@ -12427,10 +12427,10 @@
         <v>1243</v>
       </c>
       <c r="I304" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1914</v>
       </c>
@@ -12453,10 +12453,10 @@
         <v>1243</v>
       </c>
       <c r="I305" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1914</v>
       </c>
@@ -12479,10 +12479,10 @@
         <v>1245</v>
       </c>
       <c r="I306" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1914</v>
       </c>
@@ -12505,10 +12505,10 @@
         <v>1242</v>
       </c>
       <c r="I307" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1914</v>
       </c>
@@ -12531,10 +12531,10 @@
         <v>1193</v>
       </c>
       <c r="I308" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1914</v>
       </c>
@@ -12557,10 +12557,10 @@
         <v>1246</v>
       </c>
       <c r="I309" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1914</v>
       </c>
@@ -12583,10 +12583,10 @@
         <v>1246</v>
       </c>
       <c r="I310" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1914</v>
       </c>
@@ -12609,10 +12609,10 @@
         <v>1246</v>
       </c>
       <c r="I311" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1914</v>
       </c>
@@ -12635,10 +12635,10 @@
         <v>1243</v>
       </c>
       <c r="I312" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1914</v>
       </c>
@@ -12661,10 +12661,10 @@
         <v>1242</v>
       </c>
       <c r="I313" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1914</v>
       </c>
@@ -12687,10 +12687,10 @@
         <v>1247</v>
       </c>
       <c r="I314" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1914</v>
       </c>
@@ -12710,13 +12710,13 @@
         <v>1075</v>
       </c>
       <c r="H315" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I315" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1914</v>
       </c>
@@ -12736,13 +12736,13 @@
         <v>987</v>
       </c>
       <c r="H316" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I316" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1914</v>
       </c>
@@ -12765,10 +12765,10 @@
         <v>1247</v>
       </c>
       <c r="I317" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1914</v>
       </c>
@@ -12791,10 +12791,10 @@
         <v>1248</v>
       </c>
       <c r="I318" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1914</v>
       </c>
@@ -12814,13 +12814,13 @@
         <v>1105</v>
       </c>
       <c r="H319" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I319" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1914</v>
       </c>
@@ -12843,13 +12843,13 @@
         <v>1106</v>
       </c>
       <c r="H320" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I320" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1914</v>
       </c>
@@ -12872,10 +12872,10 @@
         <v>1249</v>
       </c>
       <c r="I321" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1914</v>
       </c>
@@ -12895,13 +12895,13 @@
         <v>900</v>
       </c>
       <c r="H322" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I322" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1914</v>
       </c>
@@ -12921,13 +12921,13 @@
         <v>1030</v>
       </c>
       <c r="H323" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I323" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1914</v>
       </c>
@@ -12950,10 +12950,10 @@
         <v>1247</v>
       </c>
       <c r="I324" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1914</v>
       </c>
@@ -12973,13 +12973,13 @@
         <v>1108</v>
       </c>
       <c r="H325" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I325" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1914</v>
       </c>
@@ -12999,13 +12999,13 @@
         <v>1109</v>
       </c>
       <c r="H326" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I326" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1914</v>
       </c>
@@ -13028,10 +13028,10 @@
         <v>1249</v>
       </c>
       <c r="I327" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1914</v>
       </c>
@@ -13054,10 +13054,10 @@
         <v>1210</v>
       </c>
       <c r="I328" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1914</v>
       </c>
@@ -13080,10 +13080,10 @@
         <v>1236</v>
       </c>
       <c r="I329" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1914</v>
       </c>
@@ -13106,10 +13106,10 @@
         <v>1236</v>
       </c>
       <c r="I330" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1914</v>
       </c>
@@ -13129,13 +13129,13 @@
         <v>996</v>
       </c>
       <c r="H331" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I331" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1914</v>
       </c>
@@ -13155,13 +13155,13 @@
         <v>1113</v>
       </c>
       <c r="H332" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I332" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1914</v>
       </c>
@@ -13184,10 +13184,10 @@
         <v>1250</v>
       </c>
       <c r="I333" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1914</v>
       </c>
@@ -13213,10 +13213,10 @@
         <v>1250</v>
       </c>
       <c r="I334" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1914</v>
       </c>
@@ -13239,10 +13239,10 @@
         <v>1210</v>
       </c>
       <c r="I335" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1914</v>
       </c>
@@ -13265,10 +13265,10 @@
         <v>1251</v>
       </c>
       <c r="I336" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1914</v>
       </c>
@@ -13291,10 +13291,10 @@
         <v>1251</v>
       </c>
       <c r="I337" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1914</v>
       </c>
@@ -13317,10 +13317,10 @@
         <v>1251</v>
       </c>
       <c r="I338" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1914</v>
       </c>
@@ -13343,10 +13343,10 @@
         <v>1251</v>
       </c>
       <c r="I339" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1914</v>
       </c>
@@ -13369,10 +13369,10 @@
         <v>1252</v>
       </c>
       <c r="I340" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1914</v>
       </c>
@@ -13395,10 +13395,10 @@
         <v>1253</v>
       </c>
       <c r="I341" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1914</v>
       </c>
@@ -13421,10 +13421,10 @@
         <v>1253</v>
       </c>
       <c r="I342" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1914</v>
       </c>
@@ -13444,13 +13444,13 @@
         <v>996</v>
       </c>
       <c r="H343" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I343" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1914</v>
       </c>
@@ -13470,13 +13470,13 @@
         <v>903</v>
       </c>
       <c r="H344" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I344" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1914</v>
       </c>
@@ -13499,10 +13499,10 @@
         <v>1254</v>
       </c>
       <c r="I345" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1914</v>
       </c>
@@ -13525,10 +13525,10 @@
         <v>1254</v>
       </c>
       <c r="I346" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1914</v>
       </c>
@@ -13551,10 +13551,10 @@
         <v>1254</v>
       </c>
       <c r="I347" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1914</v>
       </c>
@@ -13577,10 +13577,10 @@
         <v>1254</v>
       </c>
       <c r="I348" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1914</v>
       </c>
@@ -13603,10 +13603,10 @@
         <v>1255</v>
       </c>
       <c r="I349" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1914</v>
       </c>
@@ -13629,10 +13629,10 @@
         <v>1255</v>
       </c>
       <c r="I350" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1914</v>
       </c>
@@ -13655,10 +13655,10 @@
         <v>1255</v>
       </c>
       <c r="I351" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1914</v>
       </c>
@@ -13681,10 +13681,10 @@
         <v>1256</v>
       </c>
       <c r="I352" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1914</v>
       </c>
@@ -13707,10 +13707,10 @@
         <v>1257</v>
       </c>
       <c r="I353" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1914</v>
       </c>
@@ -13733,10 +13733,10 @@
         <v>1257</v>
       </c>
       <c r="I354" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1914</v>
       </c>
@@ -13762,10 +13762,10 @@
         <v>1258</v>
       </c>
       <c r="I355" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1914</v>
       </c>
@@ -13791,10 +13791,10 @@
         <v>1258</v>
       </c>
       <c r="I356" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1914</v>
       </c>
@@ -13820,10 +13820,10 @@
         <v>1258</v>
       </c>
       <c r="I357" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1914</v>
       </c>
@@ -13849,10 +13849,10 @@
         <v>1259</v>
       </c>
       <c r="I358" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1914</v>
       </c>
@@ -13875,10 +13875,10 @@
         <v>1259</v>
       </c>
       <c r="I359" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1914</v>
       </c>
@@ -13901,10 +13901,10 @@
         <v>1259</v>
       </c>
       <c r="I360" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1914</v>
       </c>
@@ -13924,13 +13924,13 @@
         <v>1129</v>
       </c>
       <c r="H361" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I361" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1914</v>
       </c>
@@ -13950,13 +13950,13 @@
         <v>1130</v>
       </c>
       <c r="H362" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I362" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1914</v>
       </c>
@@ -13976,13 +13976,13 @@
         <v>908</v>
       </c>
       <c r="H363" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I363" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1914</v>
       </c>
@@ -14005,16 +14005,16 @@
         <v>1259</v>
       </c>
       <c r="I364" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J364" t="s">
         <v>1259</v>
       </c>
       <c r="K364" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1914</v>
       </c>
@@ -14037,10 +14037,10 @@
         <v>1260</v>
       </c>
       <c r="I365" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1914</v>
       </c>
@@ -14063,10 +14063,10 @@
         <v>1260</v>
       </c>
       <c r="I366" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1914</v>
       </c>
@@ -14089,10 +14089,10 @@
         <v>1261</v>
       </c>
       <c r="I367" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1914</v>
       </c>
@@ -14115,10 +14115,10 @@
         <v>1261</v>
       </c>
       <c r="I368" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1914</v>
       </c>
@@ -14144,10 +14144,10 @@
         <v>1262</v>
       </c>
       <c r="I369" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1914</v>
       </c>
@@ -14170,10 +14170,10 @@
         <v>1262</v>
       </c>
       <c r="I370" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1914</v>
       </c>
@@ -14196,10 +14196,10 @@
         <v>1262</v>
       </c>
       <c r="I371" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1914</v>
       </c>
@@ -14222,10 +14222,10 @@
         <v>1262</v>
       </c>
       <c r="I372" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1914</v>
       </c>
@@ -14248,10 +14248,10 @@
         <v>1263</v>
       </c>
       <c r="I373" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1914</v>
       </c>
@@ -14274,10 +14274,10 @@
         <v>1263</v>
       </c>
       <c r="I374" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1914</v>
       </c>
@@ -14300,10 +14300,10 @@
         <v>1263</v>
       </c>
       <c r="I375" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1914</v>
       </c>
@@ -14326,10 +14326,10 @@
         <v>1263</v>
       </c>
       <c r="I376" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1914</v>
       </c>
@@ -14352,10 +14352,10 @@
         <v>1263</v>
       </c>
       <c r="I377" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1914</v>
       </c>
@@ -14378,10 +14378,10 @@
         <v>1263</v>
       </c>
       <c r="I378" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1914</v>
       </c>
@@ -14404,10 +14404,10 @@
         <v>1263</v>
       </c>
       <c r="I379" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1914</v>
       </c>
@@ -14430,10 +14430,10 @@
         <v>1263</v>
       </c>
       <c r="I380" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1914</v>
       </c>
@@ -14456,13 +14456,13 @@
         <v>1264</v>
       </c>
       <c r="I381" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J381" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1914</v>
       </c>
@@ -14485,13 +14485,13 @@
         <v>1264</v>
       </c>
       <c r="I382" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J382" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1914</v>
       </c>
@@ -14514,13 +14514,13 @@
         <v>1264</v>
       </c>
       <c r="I383" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J383" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1914</v>
       </c>
@@ -14543,10 +14543,10 @@
         <v>1265</v>
       </c>
       <c r="I384" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1914</v>
       </c>
@@ -14569,10 +14569,10 @@
         <v>1266</v>
       </c>
       <c r="I385" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1914</v>
       </c>
@@ -14595,10 +14595,10 @@
         <v>1267</v>
       </c>
       <c r="I386" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1914</v>
       </c>
@@ -14624,10 +14624,10 @@
         <v>1268</v>
       </c>
       <c r="I387" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1914</v>
       </c>
@@ -14653,10 +14653,10 @@
         <v>1268</v>
       </c>
       <c r="I388" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1914</v>
       </c>
@@ -14682,10 +14682,10 @@
         <v>1268</v>
       </c>
       <c r="I389" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1914</v>
       </c>
@@ -14711,10 +14711,10 @@
         <v>1268</v>
       </c>
       <c r="I390" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1914</v>
       </c>
@@ -14737,10 +14737,10 @@
         <v>1269</v>
       </c>
       <c r="I391" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1914</v>
       </c>
@@ -14763,10 +14763,10 @@
         <v>1269</v>
       </c>
       <c r="I392" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1914</v>
       </c>
@@ -14792,10 +14792,10 @@
         <v>1270</v>
       </c>
       <c r="I393" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1914</v>
       </c>
@@ -14821,10 +14821,10 @@
         <v>1270</v>
       </c>
       <c r="I394" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1914</v>
       </c>
@@ -14850,10 +14850,10 @@
         <v>1270</v>
       </c>
       <c r="I395" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1914</v>
       </c>
@@ -14879,10 +14879,10 @@
         <v>1270</v>
       </c>
       <c r="I396" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1914</v>
       </c>
@@ -14908,10 +14908,10 @@
         <v>1270</v>
       </c>
       <c r="I397" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1914</v>
       </c>
@@ -14934,10 +14934,10 @@
         <v>1271</v>
       </c>
       <c r="I398" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1914</v>
       </c>
@@ -14960,10 +14960,10 @@
         <v>1271</v>
       </c>
       <c r="I399" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1914</v>
       </c>
@@ -14986,10 +14986,10 @@
         <v>1187</v>
       </c>
       <c r="I400" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1914</v>
       </c>
@@ -15012,10 +15012,10 @@
         <v>1187</v>
       </c>
       <c r="I401" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1914</v>
       </c>
@@ -15038,10 +15038,10 @@
         <v>1187</v>
       </c>
       <c r="I402" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1914</v>
       </c>
@@ -15064,10 +15064,10 @@
         <v>1187</v>
       </c>
       <c r="I403" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1914</v>
       </c>
@@ -15090,10 +15090,10 @@
         <v>1187</v>
       </c>
       <c r="I404" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1914</v>
       </c>
@@ -15116,10 +15116,10 @@
         <v>1187</v>
       </c>
       <c r="I405" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1914</v>
       </c>
@@ -15142,10 +15142,10 @@
         <v>1187</v>
       </c>
       <c r="I406" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1914</v>
       </c>
@@ -15168,10 +15168,10 @@
         <v>1187</v>
       </c>
       <c r="I407" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1914</v>
       </c>
@@ -15191,13 +15191,13 @@
         <v>1152</v>
       </c>
       <c r="H408" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I408" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1914</v>
       </c>
@@ -15217,13 +15217,13 @@
         <v>1153</v>
       </c>
       <c r="H409" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I409" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1914</v>
       </c>
@@ -15243,13 +15243,13 @@
         <v>1154</v>
       </c>
       <c r="H410" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I410" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1914</v>
       </c>
@@ -15269,13 +15269,13 @@
         <v>1155</v>
       </c>
       <c r="H411" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I411" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1914</v>
       </c>
@@ -15295,13 +15295,13 @@
         <v>1156</v>
       </c>
       <c r="H412" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I412" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1914</v>
       </c>
@@ -15324,10 +15324,10 @@
         <v>1272</v>
       </c>
       <c r="I413" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1914</v>
       </c>
@@ -15350,10 +15350,10 @@
         <v>1272</v>
       </c>
       <c r="I414" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1914</v>
       </c>
@@ -15376,10 +15376,10 @@
         <v>1272</v>
       </c>
       <c r="I415" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1914</v>
       </c>
@@ -15402,10 +15402,10 @@
         <v>1272</v>
       </c>
       <c r="I416" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1914</v>
       </c>
@@ -15428,10 +15428,10 @@
         <v>1272</v>
       </c>
       <c r="I417" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1914</v>
       </c>
@@ -15454,10 +15454,10 @@
         <v>1272</v>
       </c>
       <c r="I418" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1914</v>
       </c>
@@ -15480,10 +15480,10 @@
         <v>1273</v>
       </c>
       <c r="I419" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1914</v>
       </c>
@@ -15506,10 +15506,10 @@
         <v>1274</v>
       </c>
       <c r="I420" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1914</v>
       </c>
@@ -15532,10 +15532,10 @@
         <v>1275</v>
       </c>
       <c r="I421" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1914</v>
       </c>
@@ -15558,10 +15558,10 @@
         <v>1275</v>
       </c>
       <c r="I422" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1914</v>
       </c>
@@ -15587,10 +15587,10 @@
         <v>1276</v>
       </c>
       <c r="I423" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1914</v>
       </c>
@@ -15610,19 +15610,19 @@
         <v>1165</v>
       </c>
       <c r="H424" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I424" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K424" t="s">
         <v>1280</v>
       </c>
-      <c r="I424" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J424" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K424" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L424" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1914</v>
       </c>
@@ -15642,19 +15642,19 @@
         <v>1166</v>
       </c>
       <c r="H425" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I425" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K425" t="s">
         <v>1280</v>
       </c>
-      <c r="I425" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J425" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K425" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L425" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1914</v>
       </c>
@@ -15677,10 +15677,10 @@
         <v>1277</v>
       </c>
       <c r="I426" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1914</v>
       </c>
@@ -15703,10 +15703,10 @@
         <v>1277</v>
       </c>
       <c r="I427" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1914</v>
       </c>
@@ -15729,10 +15729,10 @@
         <v>1278</v>
       </c>
       <c r="I428" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1914</v>
       </c>
@@ -15755,10 +15755,10 @@
         <v>1279</v>
       </c>
       <c r="I429" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1914</v>
       </c>
@@ -15781,10 +15781,10 @@
         <v>1280</v>
       </c>
       <c r="I430" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1914</v>
       </c>
@@ -15807,10 +15807,10 @@
         <v>1281</v>
       </c>
       <c r="I431" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1914</v>
       </c>
@@ -15833,10 +15833,10 @@
         <v>1281</v>
       </c>
       <c r="I432" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1914</v>
       </c>
@@ -15859,10 +15859,10 @@
         <v>1281</v>
       </c>
       <c r="I433" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1914</v>
       </c>
@@ -15885,10 +15885,10 @@
         <v>1281</v>
       </c>
       <c r="I434" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1914</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>1281</v>
       </c>
       <c r="I435" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1914_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1914_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36627600-8F8B-4526-84C9-7B1ACDF53DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA8C9E-98F6-4871-B20C-FA65AA8336BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1335">
   <si>
     <t>Winter</t>
   </si>
@@ -3569,9 +3569,6 @@
     <t>reichel_hf</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3653,9 +3650,6 @@
     <t>mueller_h</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>sommer_e</t>
   </si>
   <si>
@@ -3866,9 +3860,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>strohl_j</t>
   </si>
   <si>
@@ -3884,24 +3875,15 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>bachmann_g</t>
   </si>
   <si>
     <t>meyer_a2</t>
   </si>
   <si>
-    <t>frey_j</t>
-  </si>
-  <si>
     <t>fehr</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>hess_wr</t>
   </si>
   <si>
@@ -3923,9 +3905,6 @@
     <t>fick_age</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3971,9 +3950,6 @@
     <t>koehler_l1</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>tieche_m</t>
   </si>
   <si>
@@ -3995,9 +3971,6 @@
     <t>Dekan</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>EO</t>
   </si>
   <si>
@@ -4022,9 +3995,6 @@
     <t>vonlaue_m</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
     <t>vakant</t>
   </si>
   <si>
@@ -4044,6 +4014,30 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>frey_j2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4085,12 +4079,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4394,11 +4391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B267" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H279" sqref="H279"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="35.44140625" customWidth="1"/>
@@ -4429,10 +4426,10 @@
         <v>1174</v>
       </c>
       <c r="I1" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J1" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4458,7 +4455,7 @@
         <v>1170</v>
       </c>
       <c r="I2" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4481,10 +4478,10 @@
         <v>875</v>
       </c>
       <c r="H3" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="I3" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4510,7 +4507,7 @@
         <v>1170</v>
       </c>
       <c r="I4" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4533,10 +4530,10 @@
         <v>877</v>
       </c>
       <c r="H5" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="I5" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4559,10 +4556,10 @@
         <v>878</v>
       </c>
       <c r="H6" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="I6" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4588,7 +4585,7 @@
         <v>1170</v>
       </c>
       <c r="I7" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4614,7 +4611,7 @@
         <v>1172</v>
       </c>
       <c r="I8" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4637,10 +4634,10 @@
         <v>881</v>
       </c>
       <c r="H9" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I9" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4666,7 +4663,7 @@
         <v>1172</v>
       </c>
       <c r="I10" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4692,7 +4689,7 @@
         <v>1173</v>
       </c>
       <c r="I11" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4718,7 +4715,7 @@
         <v>1172</v>
       </c>
       <c r="I12" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4744,7 +4741,7 @@
         <v>1172</v>
       </c>
       <c r="I13" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4770,7 +4767,7 @@
         <v>1171</v>
       </c>
       <c r="I14" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4796,7 +4793,7 @@
         <v>1171</v>
       </c>
       <c r="I15" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4822,7 +4819,7 @@
         <v>1171</v>
       </c>
       <c r="I16" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,10 +4842,10 @@
         <v>889</v>
       </c>
       <c r="H17" t="s">
-        <v>1283</v>
+        <v>1330</v>
       </c>
       <c r="I17" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4871,10 +4868,10 @@
         <v>890</v>
       </c>
       <c r="H18" t="s">
-        <v>1283</v>
+        <v>1330</v>
       </c>
       <c r="I18" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4900,10 +4897,10 @@
         <v>1174</v>
       </c>
       <c r="I19" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J19" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4926,10 +4923,10 @@
         <v>892</v>
       </c>
       <c r="H20" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I20" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4955,7 +4952,7 @@
         <v>1173</v>
       </c>
       <c r="I21" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4981,7 +4978,7 @@
         <v>1170</v>
       </c>
       <c r="I22" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,10 +5001,10 @@
         <v>895</v>
       </c>
       <c r="H23" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I23" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5033,7 +5030,7 @@
         <v>1172</v>
       </c>
       <c r="I24" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5059,7 +5056,7 @@
         <v>1171</v>
       </c>
       <c r="I25" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5085,10 +5082,10 @@
         <v>1174</v>
       </c>
       <c r="I26" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J26" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5111,10 +5108,10 @@
         <v>899</v>
       </c>
       <c r="H27" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I27" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5140,10 +5137,10 @@
         <v>1174</v>
       </c>
       <c r="I28" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J28" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5163,13 +5160,13 @@
         <v>472</v>
       </c>
       <c r="G29" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="H29" t="s">
         <v>1175</v>
       </c>
       <c r="I29" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5195,7 +5192,7 @@
         <v>1176</v>
       </c>
       <c r="I30" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5221,7 +5218,7 @@
         <v>1177</v>
       </c>
       <c r="I31" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5247,7 +5244,7 @@
         <v>1177</v>
       </c>
       <c r="I32" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5273,7 +5270,7 @@
         <v>1177</v>
       </c>
       <c r="I33" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5296,10 +5293,10 @@
         <v>904</v>
       </c>
       <c r="H34" t="s">
-        <v>1178</v>
+        <v>1331</v>
       </c>
       <c r="I34" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5322,10 +5319,10 @@
         <v>905</v>
       </c>
       <c r="H35" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I35" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5348,10 +5345,10 @@
         <v>906</v>
       </c>
       <c r="H36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I36" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5374,10 +5371,10 @@
         <v>907</v>
       </c>
       <c r="H37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I37" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5400,10 +5397,10 @@
         <v>908</v>
       </c>
       <c r="H38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I38" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5426,10 +5423,10 @@
         <v>909</v>
       </c>
       <c r="H39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I39" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5452,10 +5449,10 @@
         <v>910</v>
       </c>
       <c r="H40" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I40" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5478,10 +5475,10 @@
         <v>911</v>
       </c>
       <c r="H41" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I41" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5504,10 +5501,10 @@
         <v>912</v>
       </c>
       <c r="H42" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I42" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5530,10 +5527,10 @@
         <v>913</v>
       </c>
       <c r="H43" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I43" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5559,7 +5556,7 @@
         <v>1175</v>
       </c>
       <c r="I44" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5582,10 +5579,10 @@
         <v>915</v>
       </c>
       <c r="H45" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I45" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5611,7 +5608,7 @@
         <v>1175</v>
       </c>
       <c r="I46" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5634,10 +5631,10 @@
         <v>917</v>
       </c>
       <c r="H47" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I47" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5660,10 +5657,10 @@
         <v>918</v>
       </c>
       <c r="H48" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I48" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -5686,10 +5683,10 @@
         <v>919</v>
       </c>
       <c r="H49" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I49" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -5712,10 +5709,10 @@
         <v>920</v>
       </c>
       <c r="H50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I50" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -5738,10 +5735,10 @@
         <v>921</v>
       </c>
       <c r="H51" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I51" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -5764,10 +5761,10 @@
         <v>922</v>
       </c>
       <c r="H52" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I52" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5790,10 +5787,10 @@
         <v>923</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -5816,10 +5813,10 @@
         <v>924</v>
       </c>
       <c r="H54" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I54" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -5842,10 +5839,10 @@
         <v>925</v>
       </c>
       <c r="H55" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="I55" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -5868,10 +5865,10 @@
         <v>899</v>
       </c>
       <c r="H56" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="I56" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -5894,10 +5891,10 @@
         <v>926</v>
       </c>
       <c r="H57" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="I57" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -5920,10 +5917,10 @@
         <v>927</v>
       </c>
       <c r="H58" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I58" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -5946,10 +5943,10 @@
         <v>903</v>
       </c>
       <c r="H59" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I59" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -5972,10 +5969,10 @@
         <v>880</v>
       </c>
       <c r="H60" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="I60" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -5998,10 +5995,10 @@
         <v>928</v>
       </c>
       <c r="H61" t="s">
-        <v>1286</v>
+        <v>1327</v>
       </c>
       <c r="I61" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6027,7 +6024,7 @@
         <v>1175</v>
       </c>
       <c r="I62" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6053,7 +6050,7 @@
         <v>1177</v>
       </c>
       <c r="I63" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6076,10 +6073,10 @@
         <v>927</v>
       </c>
       <c r="H64" t="s">
-        <v>1178</v>
+        <v>1331</v>
       </c>
       <c r="I64" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -6102,10 +6099,10 @@
         <v>898</v>
       </c>
       <c r="H65" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I65" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -6128,10 +6125,10 @@
         <v>930</v>
       </c>
       <c r="H66" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I66" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -6154,10 +6151,10 @@
         <v>931</v>
       </c>
       <c r="H67" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I67" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -6183,7 +6180,7 @@
         <v>1176</v>
       </c>
       <c r="I68" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -6206,10 +6203,10 @@
         <v>933</v>
       </c>
       <c r="H69" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I69" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -6232,10 +6229,10 @@
         <v>898</v>
       </c>
       <c r="H70" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I70" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -6258,10 +6255,10 @@
         <v>880</v>
       </c>
       <c r="H71" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I71" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -6284,10 +6281,10 @@
         <v>908</v>
       </c>
       <c r="H72" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I72" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -6310,10 +6307,10 @@
         <v>934</v>
       </c>
       <c r="H73" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I73" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -6336,10 +6333,10 @@
         <v>875</v>
       </c>
       <c r="H74" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="I74" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -6362,10 +6359,10 @@
         <v>935</v>
       </c>
       <c r="H75" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="I75" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -6388,10 +6385,10 @@
         <v>936</v>
       </c>
       <c r="H76" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I76" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -6414,10 +6411,10 @@
         <v>937</v>
       </c>
       <c r="H77" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I77" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -6440,10 +6437,10 @@
         <v>938</v>
       </c>
       <c r="H78" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I78" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -6466,10 +6463,10 @@
         <v>939</v>
       </c>
       <c r="H79" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="I79" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -6492,10 +6489,10 @@
         <v>940</v>
       </c>
       <c r="H80" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I80" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6518,16 +6515,16 @@
         <v>941</v>
       </c>
       <c r="H81" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K81" t="s">
         <v>1194</v>
       </c>
-      <c r="I81" t="s">
-        <v>1317</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1195</v>
-      </c>
       <c r="L81" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6553,16 +6550,16 @@
         <v>905</v>
       </c>
       <c r="H82" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K82" t="s">
         <v>1194</v>
       </c>
-      <c r="I82" t="s">
-        <v>1317</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1195</v>
-      </c>
       <c r="L82" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6588,16 +6585,16 @@
         <v>942</v>
       </c>
       <c r="H83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K83" t="s">
         <v>1194</v>
       </c>
-      <c r="I83" t="s">
-        <v>1317</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1195</v>
-      </c>
       <c r="L83" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6620,16 +6617,16 @@
         <v>943</v>
       </c>
       <c r="H84" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K84" t="s">
         <v>1194</v>
       </c>
-      <c r="I84" t="s">
-        <v>1317</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1195</v>
-      </c>
       <c r="L84" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6655,16 +6652,16 @@
         <v>944</v>
       </c>
       <c r="H85" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K85" t="s">
         <v>1194</v>
       </c>
-      <c r="I85" t="s">
-        <v>1317</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1195</v>
-      </c>
       <c r="L85" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6690,10 +6687,10 @@
         <v>945</v>
       </c>
       <c r="H86" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I86" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6716,10 +6713,10 @@
         <v>946</v>
       </c>
       <c r="H87" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I87" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -6742,10 +6739,10 @@
         <v>947</v>
       </c>
       <c r="H88" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I88" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -6768,10 +6765,10 @@
         <v>948</v>
       </c>
       <c r="H89" t="s">
-        <v>1288</v>
+        <v>1329</v>
       </c>
       <c r="I89" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -6794,10 +6791,10 @@
         <v>949</v>
       </c>
       <c r="H90" t="s">
-        <v>1288</v>
+        <v>1329</v>
       </c>
       <c r="I90" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -6820,10 +6817,10 @@
         <v>888</v>
       </c>
       <c r="H91" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I91" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -6846,10 +6843,10 @@
         <v>888</v>
       </c>
       <c r="H92" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I92" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -6872,10 +6869,10 @@
         <v>945</v>
       </c>
       <c r="H93" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I93" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -6898,10 +6895,10 @@
         <v>950</v>
       </c>
       <c r="H94" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I94" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -6924,10 +6921,10 @@
         <v>926</v>
       </c>
       <c r="H95" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I95" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -6950,16 +6947,16 @@
         <v>951</v>
       </c>
       <c r="H96" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I96" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="K96" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="L96" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -6982,16 +6979,16 @@
         <v>952</v>
       </c>
       <c r="H97" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I97" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="K97" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="L97" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7014,10 +7011,10 @@
         <v>953</v>
       </c>
       <c r="H98" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I98" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7040,10 +7037,10 @@
         <v>954</v>
       </c>
       <c r="H99" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="I99" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7066,16 +7063,16 @@
         <v>955</v>
       </c>
       <c r="H100" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="I100" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="K100" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L100" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7098,16 +7095,16 @@
         <v>956</v>
       </c>
       <c r="H101" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="I101" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="K101" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L101" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7130,10 +7127,10 @@
         <v>888</v>
       </c>
       <c r="H102" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I102" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7156,10 +7153,10 @@
         <v>957</v>
       </c>
       <c r="H103" t="s">
-        <v>1312</v>
+        <v>1334</v>
       </c>
       <c r="I103" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7182,10 +7179,10 @@
         <v>958</v>
       </c>
       <c r="H104" t="s">
-        <v>1312</v>
+        <v>1334</v>
       </c>
       <c r="I104" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7208,10 +7205,10 @@
         <v>959</v>
       </c>
       <c r="H105" t="s">
-        <v>1312</v>
+        <v>1334</v>
       </c>
       <c r="I105" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7234,10 +7231,10 @@
         <v>935</v>
       </c>
       <c r="H106" t="s">
-        <v>1312</v>
+        <v>1334</v>
       </c>
       <c r="I106" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7260,10 +7257,10 @@
         <v>888</v>
       </c>
       <c r="H107" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I107" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7286,10 +7283,10 @@
         <v>960</v>
       </c>
       <c r="H108" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I108" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7312,13 +7309,13 @@
         <v>961</v>
       </c>
       <c r="H109" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I109" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J109" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7341,13 +7338,13 @@
         <v>962</v>
       </c>
       <c r="H110" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I110" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J110" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7370,13 +7367,13 @@
         <v>963</v>
       </c>
       <c r="H111" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I111" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J111" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7399,13 +7396,13 @@
         <v>964</v>
       </c>
       <c r="H112" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I112" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J112" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -7428,13 +7425,13 @@
         <v>965</v>
       </c>
       <c r="H113" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I113" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J113" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -7457,13 +7454,13 @@
         <v>966</v>
       </c>
       <c r="H114" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I114" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J114" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -7486,13 +7483,13 @@
         <v>967</v>
       </c>
       <c r="H115" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="I115" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J115" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -7515,13 +7512,13 @@
         <v>968</v>
       </c>
       <c r="H116" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="I116" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J116" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -7547,10 +7544,10 @@
         <v>969</v>
       </c>
       <c r="H117" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I117" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -7576,10 +7573,10 @@
         <v>970</v>
       </c>
       <c r="H118" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I118" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -7602,10 +7599,10 @@
         <v>971</v>
       </c>
       <c r="H119" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I119" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -7628,10 +7625,10 @@
         <v>972</v>
       </c>
       <c r="H120" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I120" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -7654,10 +7651,10 @@
         <v>888</v>
       </c>
       <c r="H121" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="I121" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -7680,10 +7677,10 @@
         <v>888</v>
       </c>
       <c r="H122" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I122" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -7706,10 +7703,10 @@
         <v>973</v>
       </c>
       <c r="H123" t="s">
-        <v>1288</v>
+        <v>1329</v>
       </c>
       <c r="I123" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -7732,10 +7729,10 @@
         <v>974</v>
       </c>
       <c r="H124" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="I124" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -7758,10 +7755,10 @@
         <v>975</v>
       </c>
       <c r="H125" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I125" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -7784,10 +7781,10 @@
         <v>883</v>
       </c>
       <c r="H126" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I126" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -7810,10 +7807,10 @@
         <v>976</v>
       </c>
       <c r="H127" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I127" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -7836,10 +7833,10 @@
         <v>977</v>
       </c>
       <c r="H128" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I128" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7862,10 +7859,10 @@
         <v>978</v>
       </c>
       <c r="H129" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I129" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7888,10 +7885,10 @@
         <v>979</v>
       </c>
       <c r="H130" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I130" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7914,10 +7911,10 @@
         <v>980</v>
       </c>
       <c r="H131" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I131" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7940,10 +7937,10 @@
         <v>981</v>
       </c>
       <c r="H132" t="s">
-        <v>1206</v>
+        <v>1332</v>
       </c>
       <c r="I132" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7966,10 +7963,10 @@
         <v>982</v>
       </c>
       <c r="H133" t="s">
-        <v>1206</v>
+        <v>1332</v>
       </c>
       <c r="I133" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7992,10 +7989,10 @@
         <v>982</v>
       </c>
       <c r="H134" t="s">
-        <v>1206</v>
+        <v>1332</v>
       </c>
       <c r="I134" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8018,10 +8015,10 @@
         <v>983</v>
       </c>
       <c r="H135" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I135" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8044,10 +8041,10 @@
         <v>984</v>
       </c>
       <c r="H136" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I136" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8070,10 +8067,10 @@
         <v>874</v>
       </c>
       <c r="H137" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I137" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8096,10 +8093,10 @@
         <v>985</v>
       </c>
       <c r="H138" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I138" t="s">
         <v>1313</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8122,10 +8119,10 @@
         <v>986</v>
       </c>
       <c r="H139" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="I139" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8148,10 +8145,10 @@
         <v>987</v>
       </c>
       <c r="H140" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I140" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8174,10 +8171,10 @@
         <v>988</v>
       </c>
       <c r="H141" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I141" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8200,10 +8197,10 @@
         <v>989</v>
       </c>
       <c r="H142" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I142" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8226,10 +8223,10 @@
         <v>990</v>
       </c>
       <c r="H143" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I143" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8252,10 +8249,10 @@
         <v>888</v>
       </c>
       <c r="H144" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I144" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8278,10 +8275,10 @@
         <v>883</v>
       </c>
       <c r="H145" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="I145" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8304,10 +8301,10 @@
         <v>991</v>
       </c>
       <c r="H146" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="I146" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8330,10 +8327,10 @@
         <v>992</v>
       </c>
       <c r="H147" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="I147" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8356,10 +8353,10 @@
         <v>993</v>
       </c>
       <c r="H148" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="I148" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8382,10 +8379,10 @@
         <v>883</v>
       </c>
       <c r="H149" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I149" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8408,10 +8405,10 @@
         <v>994</v>
       </c>
       <c r="H150" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I150" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8434,10 +8431,10 @@
         <v>995</v>
       </c>
       <c r="H151" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I151" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8460,10 +8457,10 @@
         <v>926</v>
       </c>
       <c r="H152" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I152" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8486,10 +8483,10 @@
         <v>996</v>
       </c>
       <c r="H153" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I153" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8512,10 +8509,10 @@
         <v>997</v>
       </c>
       <c r="H154" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I154" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8538,10 +8535,10 @@
         <v>998</v>
       </c>
       <c r="H155" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I155" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8564,10 +8561,10 @@
         <v>999</v>
       </c>
       <c r="H156" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I156" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8590,10 +8587,10 @@
         <v>883</v>
       </c>
       <c r="H157" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="I157" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8616,10 +8613,10 @@
         <v>1000</v>
       </c>
       <c r="H158" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="I158" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8642,10 +8639,10 @@
         <v>1001</v>
       </c>
       <c r="H159" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="I159" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8668,10 +8665,10 @@
         <v>1002</v>
       </c>
       <c r="H160" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I160" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8694,10 +8691,10 @@
         <v>1003</v>
       </c>
       <c r="H161" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I161" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8719,11 +8716,11 @@
       <c r="G162" t="s">
         <v>1004</v>
       </c>
-      <c r="H162" t="s">
-        <v>1296</v>
+      <c r="H162" s="2" t="s">
+        <v>1328</v>
       </c>
       <c r="I162" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8745,11 +8742,11 @@
       <c r="G163" t="s">
         <v>1005</v>
       </c>
-      <c r="H163" t="s">
-        <v>1296</v>
+      <c r="H163" s="2" t="s">
+        <v>1328</v>
       </c>
       <c r="I163" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8772,10 +8769,10 @@
         <v>1006</v>
       </c>
       <c r="H164" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="I164" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8798,10 +8795,10 @@
         <v>1007</v>
       </c>
       <c r="H165" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="I165" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8824,10 +8821,10 @@
         <v>1008</v>
       </c>
       <c r="H166" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="I166" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8850,10 +8847,10 @@
         <v>888</v>
       </c>
       <c r="H167" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="I167" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8876,10 +8873,10 @@
         <v>1009</v>
       </c>
       <c r="H168" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="I168" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8902,10 +8899,10 @@
         <v>1010</v>
       </c>
       <c r="H169" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="I169" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8928,10 +8925,10 @@
         <v>883</v>
       </c>
       <c r="H170" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="I170" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8954,10 +8951,10 @@
         <v>1011</v>
       </c>
       <c r="H171" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I171" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8980,10 +8977,10 @@
         <v>1012</v>
       </c>
       <c r="H172" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I172" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9006,10 +9003,10 @@
         <v>1013</v>
       </c>
       <c r="H173" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I173" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9032,10 +9029,10 @@
         <v>1014</v>
       </c>
       <c r="H174" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I174" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9058,10 +9055,10 @@
         <v>943</v>
       </c>
       <c r="H175" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I175" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9084,10 +9081,10 @@
         <v>883</v>
       </c>
       <c r="H176" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="I176" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9110,10 +9107,10 @@
         <v>1015</v>
       </c>
       <c r="H177" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="I177" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9136,10 +9133,10 @@
         <v>923</v>
       </c>
       <c r="H178" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="I178" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9162,10 +9159,10 @@
         <v>1016</v>
       </c>
       <c r="H179" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="I179" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9188,10 +9185,10 @@
         <v>888</v>
       </c>
       <c r="H180" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="I180" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9214,10 +9211,10 @@
         <v>1017</v>
       </c>
       <c r="H181" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I181" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9240,10 +9237,10 @@
         <v>1018</v>
       </c>
       <c r="H182" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I182" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9266,10 +9263,10 @@
         <v>996</v>
       </c>
       <c r="H183" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I183" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9292,10 +9289,10 @@
         <v>1019</v>
       </c>
       <c r="H184" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I184" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9318,7 +9315,7 @@
         <v>1020</v>
       </c>
       <c r="H185" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9341,7 +9338,7 @@
         <v>1021</v>
       </c>
       <c r="H186" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9364,7 +9361,7 @@
         <v>1022</v>
       </c>
       <c r="H187" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9387,7 +9384,7 @@
         <v>1023</v>
       </c>
       <c r="H188" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9410,10 +9407,10 @@
         <v>1024</v>
       </c>
       <c r="H189" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="I189" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9436,10 +9433,10 @@
         <v>1025</v>
       </c>
       <c r="H190" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="I190" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9462,10 +9459,10 @@
         <v>1026</v>
       </c>
       <c r="H191" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="I191" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9485,10 +9482,10 @@
         <v>633</v>
       </c>
       <c r="H192" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="I192" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9511,10 +9508,10 @@
         <v>1027</v>
       </c>
       <c r="H193" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I193" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9537,10 +9534,10 @@
         <v>1028</v>
       </c>
       <c r="H194" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I194" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9563,10 +9560,10 @@
         <v>1029</v>
       </c>
       <c r="H195" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I195" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9589,10 +9586,10 @@
         <v>943</v>
       </c>
       <c r="H196" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I196" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9615,10 +9612,10 @@
         <v>1030</v>
       </c>
       <c r="H197" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I197" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9641,10 +9638,10 @@
         <v>1005</v>
       </c>
       <c r="H198" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I198" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9667,10 +9664,10 @@
         <v>888</v>
       </c>
       <c r="H199" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I199" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9693,13 +9690,13 @@
         <v>1031</v>
       </c>
       <c r="H200" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I200" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="J200" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9722,13 +9719,13 @@
         <v>1032</v>
       </c>
       <c r="H201" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I201" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="J201" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9751,13 +9748,13 @@
         <v>1033</v>
       </c>
       <c r="H202" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I202" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="J202" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9780,13 +9777,13 @@
         <v>966</v>
       </c>
       <c r="H203" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I203" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="J203" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9809,10 +9806,10 @@
         <v>1034</v>
       </c>
       <c r="H204" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I204" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9835,10 +9832,10 @@
         <v>1035</v>
       </c>
       <c r="H205" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I205" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9861,10 +9858,10 @@
         <v>1036</v>
       </c>
       <c r="H206" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I206" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9887,10 +9884,10 @@
         <v>1037</v>
       </c>
       <c r="H207" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I207" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9913,10 +9910,10 @@
         <v>1020</v>
       </c>
       <c r="H208" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I208" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9939,10 +9936,10 @@
         <v>1038</v>
       </c>
       <c r="H209" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I209" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9965,10 +9962,10 @@
         <v>1039</v>
       </c>
       <c r="H210" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I210" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9991,10 +9988,10 @@
         <v>1040</v>
       </c>
       <c r="H211" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I211" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10017,10 +10014,10 @@
         <v>966</v>
       </c>
       <c r="H212" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I212" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10043,10 +10040,10 @@
         <v>1041</v>
       </c>
       <c r="H213" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I213" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10069,10 +10066,10 @@
         <v>1042</v>
       </c>
       <c r="H214" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I214" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10095,10 +10092,10 @@
         <v>1043</v>
       </c>
       <c r="H215" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I215" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10121,10 +10118,10 @@
         <v>956</v>
       </c>
       <c r="H216" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I216" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10147,10 +10144,10 @@
         <v>943</v>
       </c>
       <c r="H217" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I217" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10173,10 +10170,10 @@
         <v>1044</v>
       </c>
       <c r="H218" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I218" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10199,10 +10196,10 @@
         <v>1045</v>
       </c>
       <c r="H219" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I219" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10225,10 +10222,10 @@
         <v>1046</v>
       </c>
       <c r="H220" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I220" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10251,10 +10248,10 @@
         <v>1047</v>
       </c>
       <c r="H221" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I221" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10277,10 +10274,10 @@
         <v>1048</v>
       </c>
       <c r="H222" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I222" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10303,10 +10300,10 @@
         <v>1049</v>
       </c>
       <c r="H223" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I223" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10329,10 +10326,10 @@
         <v>990</v>
       </c>
       <c r="H224" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="I224" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10355,10 +10352,10 @@
         <v>1050</v>
       </c>
       <c r="H225" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I225" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10381,10 +10378,10 @@
         <v>1051</v>
       </c>
       <c r="H226" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="I226" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10407,10 +10404,10 @@
         <v>1052</v>
       </c>
       <c r="H227" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I227" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10433,13 +10430,13 @@
         <v>1053</v>
       </c>
       <c r="H228" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="I228" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J228" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10462,10 +10459,10 @@
         <v>1054</v>
       </c>
       <c r="H229" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I229" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10491,7 +10488,7 @@
         <v>1176</v>
       </c>
       <c r="I230" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10517,7 +10514,7 @@
         <v>1176</v>
       </c>
       <c r="I231" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10543,7 +10540,7 @@
         <v>1176</v>
       </c>
       <c r="I232" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10566,10 +10563,10 @@
         <v>1058</v>
       </c>
       <c r="H233" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="I233" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10592,10 +10589,10 @@
         <v>874</v>
       </c>
       <c r="H234" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="I234" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10618,10 +10615,10 @@
         <v>1059</v>
       </c>
       <c r="H235" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I235" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10644,13 +10641,10 @@
         <v>1060</v>
       </c>
       <c r="H236" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I236" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J236" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10673,10 +10667,10 @@
         <v>1061</v>
       </c>
       <c r="H237" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="I237" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10699,13 +10693,13 @@
         <v>1062</v>
       </c>
       <c r="H238" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="I238" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J238" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10728,13 +10722,13 @@
         <v>1063</v>
       </c>
       <c r="H239" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="I239" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="J239" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10757,10 +10751,10 @@
         <v>996</v>
       </c>
       <c r="H240" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="I240" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10783,10 +10777,10 @@
         <v>908</v>
       </c>
       <c r="H241" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="I241" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10809,10 +10803,10 @@
         <v>1058</v>
       </c>
       <c r="H242" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="I242" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10835,10 +10829,10 @@
         <v>1064</v>
       </c>
       <c r="H243" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="I243" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10861,10 +10855,10 @@
         <v>1065</v>
       </c>
       <c r="H244" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="I244" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10887,10 +10881,10 @@
         <v>1066</v>
       </c>
       <c r="H245" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="I245" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10913,10 +10907,10 @@
         <v>1067</v>
       </c>
       <c r="H246" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="I246" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10939,10 +10933,10 @@
         <v>1068</v>
       </c>
       <c r="H247" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="I247" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10968,7 +10962,7 @@
         <v>1170</v>
       </c>
       <c r="I248" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10991,10 +10985,10 @@
         <v>1069</v>
       </c>
       <c r="H249" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I249" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11017,10 +11011,10 @@
         <v>1070</v>
       </c>
       <c r="H250" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="I250" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11043,10 +11037,10 @@
         <v>1071</v>
       </c>
       <c r="H251" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I251" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11069,10 +11063,10 @@
         <v>1072</v>
       </c>
       <c r="H252" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I252" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11095,10 +11089,10 @@
         <v>902</v>
       </c>
       <c r="H253" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="I253" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11121,10 +11115,10 @@
         <v>1019</v>
       </c>
       <c r="H254" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I254" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11147,10 +11141,10 @@
         <v>888</v>
       </c>
       <c r="H255" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I255" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11173,10 +11167,10 @@
         <v>883</v>
       </c>
       <c r="H256" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="I256" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11199,10 +11193,10 @@
         <v>1073</v>
       </c>
       <c r="H257" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I257" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11225,10 +11219,10 @@
         <v>1074</v>
       </c>
       <c r="H258" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="I258" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11251,10 +11245,10 @@
         <v>1075</v>
       </c>
       <c r="H259" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="I259" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11277,10 +11271,10 @@
         <v>1076</v>
       </c>
       <c r="H260" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I260" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11303,10 +11297,10 @@
         <v>888</v>
       </c>
       <c r="H261" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I261" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11329,10 +11323,10 @@
         <v>1077</v>
       </c>
       <c r="H262" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I262" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11355,10 +11349,10 @@
         <v>883</v>
       </c>
       <c r="H263" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="I263" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11381,10 +11375,10 @@
         <v>888</v>
       </c>
       <c r="H264" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="I264" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11407,10 +11401,10 @@
         <v>922</v>
       </c>
       <c r="H265" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I265" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11433,10 +11427,10 @@
         <v>1078</v>
       </c>
       <c r="H266" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="I266" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11459,10 +11453,10 @@
         <v>1079</v>
       </c>
       <c r="H267" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I267" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11485,10 +11479,10 @@
         <v>1051</v>
       </c>
       <c r="H268" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I268" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11511,10 +11505,10 @@
         <v>972</v>
       </c>
       <c r="H269" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I269" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11537,10 +11531,10 @@
         <v>1080</v>
       </c>
       <c r="H270" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I270" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11563,10 +11557,10 @@
         <v>1062</v>
       </c>
       <c r="H271" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="I271" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11589,10 +11583,10 @@
         <v>1081</v>
       </c>
       <c r="H272" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="I272" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11615,10 +11609,10 @@
         <v>880</v>
       </c>
       <c r="H273" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I273" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11641,10 +11635,10 @@
         <v>888</v>
       </c>
       <c r="H274" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I274" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11667,10 +11661,10 @@
         <v>1082</v>
       </c>
       <c r="H275" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I275" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11693,10 +11687,10 @@
         <v>1083</v>
       </c>
       <c r="H276" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I276" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11719,10 +11713,10 @@
         <v>1055</v>
       </c>
       <c r="H277" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I277" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11745,10 +11739,10 @@
         <v>1058</v>
       </c>
       <c r="H278" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I278" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11771,10 +11765,10 @@
         <v>972</v>
       </c>
       <c r="H279" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="I279" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11797,10 +11791,10 @@
         <v>1084</v>
       </c>
       <c r="H280" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I280" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11823,10 +11817,10 @@
         <v>1056</v>
       </c>
       <c r="H281" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I281" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11849,10 +11843,10 @@
         <v>1011</v>
       </c>
       <c r="H282" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I282" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11875,10 +11869,10 @@
         <v>880</v>
       </c>
       <c r="H283" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="I283" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11901,10 +11895,10 @@
         <v>1054</v>
       </c>
       <c r="H284" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="I284" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11927,10 +11921,10 @@
         <v>928</v>
       </c>
       <c r="H285" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I285" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11953,10 +11947,10 @@
         <v>1085</v>
       </c>
       <c r="H286" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I286" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11979,10 +11973,10 @@
         <v>903</v>
       </c>
       <c r="H287" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="I287" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12005,10 +11999,10 @@
         <v>1086</v>
       </c>
       <c r="H288" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I288" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12031,10 +12025,10 @@
         <v>1036</v>
       </c>
       <c r="H289" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I289" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12057,10 +12051,10 @@
         <v>1087</v>
       </c>
       <c r="H290" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I290" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12083,10 +12077,10 @@
         <v>1088</v>
       </c>
       <c r="H291" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I291" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12109,10 +12103,10 @@
         <v>977</v>
       </c>
       <c r="H292" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="I292" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12135,10 +12129,10 @@
         <v>895</v>
       </c>
       <c r="H293" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I293" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12161,10 +12155,10 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I294" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12187,10 +12181,10 @@
         <v>878</v>
       </c>
       <c r="H295" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I295" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12216,10 +12210,10 @@
         <v>1090</v>
       </c>
       <c r="H296" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I296" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12242,10 +12236,10 @@
         <v>1091</v>
       </c>
       <c r="H297" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="I297" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12268,10 +12262,10 @@
         <v>1001</v>
       </c>
       <c r="H298" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I298" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12294,10 +12288,10 @@
         <v>1092</v>
       </c>
       <c r="H299" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I299" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12320,10 +12314,10 @@
         <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I300" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12346,10 +12340,10 @@
         <v>897</v>
       </c>
       <c r="H301" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I301" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12372,10 +12366,10 @@
         <v>1094</v>
       </c>
       <c r="H302" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I302" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12398,10 +12392,10 @@
         <v>1076</v>
       </c>
       <c r="H303" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I303" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12424,10 +12418,10 @@
         <v>1095</v>
       </c>
       <c r="H304" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I304" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12450,10 +12444,10 @@
         <v>1096</v>
       </c>
       <c r="H305" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I305" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12476,10 +12470,10 @@
         <v>1097</v>
       </c>
       <c r="H306" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I306" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12502,10 +12496,10 @@
         <v>1098</v>
       </c>
       <c r="H307" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I307" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12528,10 +12522,10 @@
         <v>1099</v>
       </c>
       <c r="H308" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I308" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12554,10 +12548,10 @@
         <v>1011</v>
       </c>
       <c r="H309" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I309" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12580,10 +12574,10 @@
         <v>929</v>
       </c>
       <c r="H310" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I310" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12606,10 +12600,10 @@
         <v>1100</v>
       </c>
       <c r="H311" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I311" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12632,10 +12626,10 @@
         <v>1101</v>
       </c>
       <c r="H312" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I312" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12658,10 +12652,10 @@
         <v>894</v>
       </c>
       <c r="H313" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I313" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12684,10 +12678,10 @@
         <v>1102</v>
       </c>
       <c r="H314" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I314" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12710,10 +12704,10 @@
         <v>1075</v>
       </c>
       <c r="H315" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="I315" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12736,10 +12730,10 @@
         <v>987</v>
       </c>
       <c r="H316" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="I316" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12762,10 +12756,10 @@
         <v>1103</v>
       </c>
       <c r="H317" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I317" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12788,10 +12782,10 @@
         <v>1104</v>
       </c>
       <c r="H318" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I318" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12814,10 +12808,10 @@
         <v>1105</v>
       </c>
       <c r="H319" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="I319" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12843,10 +12837,10 @@
         <v>1106</v>
       </c>
       <c r="H320" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="I320" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12869,10 +12863,10 @@
         <v>928</v>
       </c>
       <c r="H321" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I321" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12895,10 +12889,10 @@
         <v>900</v>
       </c>
       <c r="H322" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="I322" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12921,10 +12915,10 @@
         <v>1030</v>
       </c>
       <c r="H323" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="I323" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12947,10 +12941,10 @@
         <v>1107</v>
       </c>
       <c r="H324" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I324" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12973,10 +12967,10 @@
         <v>1108</v>
       </c>
       <c r="H325" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="I325" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12999,10 +12993,10 @@
         <v>1109</v>
       </c>
       <c r="H326" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="I326" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13025,10 +13019,10 @@
         <v>1110</v>
       </c>
       <c r="H327" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I327" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13051,10 +13045,10 @@
         <v>883</v>
       </c>
       <c r="H328" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I328" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13077,10 +13071,10 @@
         <v>1111</v>
       </c>
       <c r="H329" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I329" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13103,10 +13097,10 @@
         <v>1112</v>
       </c>
       <c r="H330" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I330" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13129,10 +13123,10 @@
         <v>996</v>
       </c>
       <c r="H331" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="I331" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13155,10 +13149,10 @@
         <v>1113</v>
       </c>
       <c r="H332" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="I332" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13181,10 +13175,10 @@
         <v>898</v>
       </c>
       <c r="H333" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I333" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13210,10 +13204,10 @@
         <v>894</v>
       </c>
       <c r="H334" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I334" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13236,10 +13230,10 @@
         <v>888</v>
       </c>
       <c r="H335" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I335" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13262,10 +13256,10 @@
         <v>1114</v>
       </c>
       <c r="H336" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I336" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13288,10 +13282,10 @@
         <v>883</v>
       </c>
       <c r="H337" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I337" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13314,10 +13308,10 @@
         <v>888</v>
       </c>
       <c r="H338" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I338" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13340,10 +13334,10 @@
         <v>888</v>
       </c>
       <c r="H339" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I339" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13366,10 +13360,10 @@
         <v>883</v>
       </c>
       <c r="H340" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I340" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13392,10 +13386,10 @@
         <v>1115</v>
       </c>
       <c r="H341" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I341" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13418,10 +13412,10 @@
         <v>1116</v>
       </c>
       <c r="H342" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I342" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13444,10 +13438,10 @@
         <v>996</v>
       </c>
       <c r="H343" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="I343" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13470,10 +13464,10 @@
         <v>903</v>
       </c>
       <c r="H344" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="I344" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13496,10 +13490,10 @@
         <v>1117</v>
       </c>
       <c r="H345" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I345" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13522,10 +13516,10 @@
         <v>1118</v>
       </c>
       <c r="H346" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I346" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13548,10 +13542,10 @@
         <v>1119</v>
       </c>
       <c r="H347" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I347" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13574,10 +13568,10 @@
         <v>1120</v>
       </c>
       <c r="H348" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I348" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13600,10 +13594,10 @@
         <v>1121</v>
       </c>
       <c r="H349" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I349" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13626,10 +13620,10 @@
         <v>1122</v>
       </c>
       <c r="H350" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I350" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13652,10 +13646,10 @@
         <v>1123</v>
       </c>
       <c r="H351" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I351" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13678,13 +13672,13 @@
         <v>883</v>
       </c>
       <c r="H352" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I352" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1914</v>
       </c>
@@ -13704,13 +13698,13 @@
         <v>1124</v>
       </c>
       <c r="H353" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I353" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1914</v>
       </c>
@@ -13730,13 +13724,13 @@
         <v>894</v>
       </c>
       <c r="H354" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I354" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1914</v>
       </c>
@@ -13759,13 +13753,13 @@
         <v>1125</v>
       </c>
       <c r="H355" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I355" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1914</v>
       </c>
@@ -13788,13 +13782,13 @@
         <v>898</v>
       </c>
       <c r="H356" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I356" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1914</v>
       </c>
@@ -13817,13 +13811,13 @@
         <v>1126</v>
       </c>
       <c r="H357" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I357" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1914</v>
       </c>
@@ -13846,13 +13840,13 @@
         <v>1127</v>
       </c>
       <c r="H358" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I358" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1914</v>
       </c>
@@ -13872,13 +13866,13 @@
         <v>1128</v>
       </c>
       <c r="H359" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I359" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1914</v>
       </c>
@@ -13898,13 +13892,13 @@
         <v>943</v>
       </c>
       <c r="H360" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I360" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1914</v>
       </c>
@@ -13924,13 +13918,13 @@
         <v>1129</v>
       </c>
       <c r="H361" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="I361" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1914</v>
       </c>
@@ -13950,13 +13944,13 @@
         <v>1130</v>
       </c>
       <c r="H362" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="I362" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1914</v>
       </c>
@@ -13976,13 +13970,13 @@
         <v>908</v>
       </c>
       <c r="H363" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="I363" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1914</v>
       </c>
@@ -14002,19 +13996,19 @@
         <v>943</v>
       </c>
       <c r="H364" t="s">
-        <v>1259</v>
+        <v>1319</v>
       </c>
       <c r="I364" t="s">
-        <v>1321</v>
-      </c>
-      <c r="J364" t="s">
-        <v>1259</v>
+        <v>1312</v>
       </c>
       <c r="K364" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+      <c r="L364" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1914</v>
       </c>
@@ -14034,13 +14028,13 @@
         <v>888</v>
       </c>
       <c r="H365" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I365" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1914</v>
       </c>
@@ -14060,13 +14054,13 @@
         <v>1131</v>
       </c>
       <c r="H366" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I366" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1914</v>
       </c>
@@ -14086,13 +14080,13 @@
         <v>1132</v>
       </c>
       <c r="H367" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I367" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1914</v>
       </c>
@@ -14112,10 +14106,10 @@
         <v>883</v>
       </c>
       <c r="H368" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I368" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14141,10 +14135,10 @@
         <v>1133</v>
       </c>
       <c r="H369" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I369" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14167,10 +14161,10 @@
         <v>943</v>
       </c>
       <c r="H370" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I370" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14193,10 +14187,10 @@
         <v>943</v>
       </c>
       <c r="H371" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I371" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14219,10 +14213,10 @@
         <v>1134</v>
       </c>
       <c r="H372" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I372" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14245,10 +14239,10 @@
         <v>1135</v>
       </c>
       <c r="H373" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I373" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14271,10 +14265,10 @@
         <v>1104</v>
       </c>
       <c r="H374" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I374" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14297,10 +14291,10 @@
         <v>1061</v>
       </c>
       <c r="H375" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I375" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14323,10 +14317,10 @@
         <v>1136</v>
       </c>
       <c r="H376" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I376" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14349,10 +14343,10 @@
         <v>1137</v>
       </c>
       <c r="H377" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I377" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14375,10 +14369,10 @@
         <v>1138</v>
       </c>
       <c r="H378" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I378" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14401,10 +14395,10 @@
         <v>1139</v>
       </c>
       <c r="H379" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I379" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14427,10 +14421,10 @@
         <v>1140</v>
       </c>
       <c r="H380" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I380" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14453,13 +14447,13 @@
         <v>1141</v>
       </c>
       <c r="H381" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I381" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="J381" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14482,13 +14476,13 @@
         <v>1142</v>
       </c>
       <c r="H382" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I382" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="J382" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14511,13 +14505,13 @@
         <v>888</v>
       </c>
       <c r="H383" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I383" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="J383" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14540,10 +14534,10 @@
         <v>883</v>
       </c>
       <c r="H384" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I384" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14566,10 +14560,10 @@
         <v>982</v>
       </c>
       <c r="H385" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I385" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14592,10 +14586,10 @@
         <v>888</v>
       </c>
       <c r="H386" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I386" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14621,10 +14615,10 @@
         <v>1143</v>
       </c>
       <c r="H387" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I387" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14650,10 +14644,10 @@
         <v>1144</v>
       </c>
       <c r="H388" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I388" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14679,10 +14673,10 @@
         <v>925</v>
       </c>
       <c r="H389" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I389" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14708,10 +14702,10 @@
         <v>943</v>
       </c>
       <c r="H390" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I390" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14734,10 +14728,10 @@
         <v>888</v>
       </c>
       <c r="H391" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I391" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14760,10 +14754,10 @@
         <v>888</v>
       </c>
       <c r="H392" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I392" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14789,10 +14783,10 @@
         <v>1145</v>
       </c>
       <c r="H393" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I393" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14818,10 +14812,10 @@
         <v>888</v>
       </c>
       <c r="H394" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I394" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14847,10 +14841,10 @@
         <v>1146</v>
       </c>
       <c r="H395" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I395" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14876,10 +14870,10 @@
         <v>943</v>
       </c>
       <c r="H396" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I396" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -14905,10 +14899,10 @@
         <v>996</v>
       </c>
       <c r="H397" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I397" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -14931,10 +14925,10 @@
         <v>883</v>
       </c>
       <c r="H398" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I398" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -14957,10 +14951,10 @@
         <v>883</v>
       </c>
       <c r="H399" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I399" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -14983,10 +14977,10 @@
         <v>1147</v>
       </c>
       <c r="H400" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I400" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15009,10 +15003,10 @@
         <v>1148</v>
       </c>
       <c r="H401" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I401" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15035,10 +15029,10 @@
         <v>1149</v>
       </c>
       <c r="H402" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I402" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15061,10 +15055,10 @@
         <v>880</v>
       </c>
       <c r="H403" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I403" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15087,10 +15081,10 @@
         <v>964</v>
       </c>
       <c r="H404" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I404" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15113,10 +15107,10 @@
         <v>934</v>
       </c>
       <c r="H405" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I405" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15139,10 +15133,10 @@
         <v>1150</v>
       </c>
       <c r="H406" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I406" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15165,10 +15159,10 @@
         <v>1151</v>
       </c>
       <c r="H407" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I407" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15191,10 +15185,10 @@
         <v>1152</v>
       </c>
       <c r="H408" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="I408" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15217,10 +15211,10 @@
         <v>1153</v>
       </c>
       <c r="H409" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="I409" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15243,10 +15237,10 @@
         <v>1154</v>
       </c>
       <c r="H410" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="I410" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15269,10 +15263,10 @@
         <v>1155</v>
       </c>
       <c r="H411" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="I411" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15295,10 +15289,10 @@
         <v>1156</v>
       </c>
       <c r="H412" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="I412" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15321,10 +15315,10 @@
         <v>1157</v>
       </c>
       <c r="H413" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I413" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15347,10 +15341,10 @@
         <v>899</v>
       </c>
       <c r="H414" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I414" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15373,10 +15367,10 @@
         <v>1158</v>
       </c>
       <c r="H415" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I415" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15399,10 +15393,10 @@
         <v>1159</v>
       </c>
       <c r="H416" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I416" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15425,10 +15419,10 @@
         <v>1151</v>
       </c>
       <c r="H417" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I417" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15451,10 +15445,10 @@
         <v>1160</v>
       </c>
       <c r="H418" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I418" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15477,10 +15471,10 @@
         <v>888</v>
       </c>
       <c r="H419" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I419" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15503,10 +15497,10 @@
         <v>1161</v>
       </c>
       <c r="H420" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I420" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15529,10 +15523,10 @@
         <v>1162</v>
       </c>
       <c r="H421" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I421" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15555,10 +15549,10 @@
         <v>1163</v>
       </c>
       <c r="H422" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I422" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15584,10 +15578,10 @@
         <v>1164</v>
       </c>
       <c r="H423" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I423" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15610,16 +15604,16 @@
         <v>1165</v>
       </c>
       <c r="H424" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I424" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="K424" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="L424" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15642,16 +15636,16 @@
         <v>1166</v>
       </c>
       <c r="H425" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I425" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="K425" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="L425" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15674,10 +15668,10 @@
         <v>883</v>
       </c>
       <c r="H426" t="s">
-        <v>1277</v>
+        <v>1333</v>
       </c>
       <c r="I426" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15700,10 +15694,10 @@
         <v>888</v>
       </c>
       <c r="H427" t="s">
-        <v>1277</v>
+        <v>1333</v>
       </c>
       <c r="I427" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15726,10 +15720,10 @@
         <v>888</v>
       </c>
       <c r="H428" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I428" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -15752,10 +15746,10 @@
         <v>883</v>
       </c>
       <c r="H429" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I429" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -15778,10 +15772,10 @@
         <v>888</v>
       </c>
       <c r="H430" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I430" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -15804,10 +15798,10 @@
         <v>1167</v>
       </c>
       <c r="H431" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I431" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -15830,10 +15824,10 @@
         <v>883</v>
       </c>
       <c r="H432" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I432" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -15856,10 +15850,10 @@
         <v>1168</v>
       </c>
       <c r="H433" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I433" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -15882,10 +15876,10 @@
         <v>1169</v>
       </c>
       <c r="H434" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I434" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -15908,10 +15902,10 @@
         <v>888</v>
       </c>
       <c r="H435" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I435" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
